--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="mt_rostov_cska" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="mt_spartak_dinamo" sheetId="9" r:id="rId9"/>
     <sheet name="mt_krasnodar_zenit" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4655" uniqueCount="1147">
   <si>
     <t>type</t>
   </si>
@@ -3282,9 +3282,6 @@
     <t>На каком месте находится Динамо Москва после шести туров?</t>
   </si>
   <si>
-    <t>Кого обыграл Спартак в прошлом туре?</t>
-  </si>
-  <si>
     <t>На каком месте находится Спартак после шести туров?</t>
   </si>
   <si>
@@ -3307,6 +3304,171 @@
   </si>
   <si>
     <t>Мексика</t>
+  </si>
+  <si>
+    <t>sm_abena</t>
+  </si>
+  <si>
+    <t>sm_markinios</t>
+  </si>
+  <si>
+    <t>Амкал</t>
+  </si>
+  <si>
+    <t>Какой по счету сейчас тур?</t>
+  </si>
+  <si>
+    <t>Кто забил победный для Динамо Москва мяч в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Как звучит полное имя игрока Динамо Москва - Муми Нгамалё?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча с махачкалинским Динаом в прошлом туре?</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>На 5 месте</t>
+  </si>
+  <si>
+    <t>На 4 месте</t>
+  </si>
+  <si>
+    <t>На 3 месте</t>
+  </si>
+  <si>
+    <t>На 2 месте</t>
+  </si>
+  <si>
+    <t>на 6 месте</t>
+  </si>
+  <si>
+    <t>На 7 месте</t>
+  </si>
+  <si>
+    <t>На 1 месте</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/mt_spartak_dinamo.jpg</t>
+  </si>
+  <si>
+    <t>Гватемала</t>
+  </si>
+  <si>
+    <t>Гваделупа</t>
+  </si>
+  <si>
+    <t>Гренада</t>
+  </si>
+  <si>
+    <t>Победой какой команды завершился последний матч между Спартаком и Динамо?</t>
+  </si>
+  <si>
+    <t>Канада</t>
+  </si>
+  <si>
+    <t>Новая Зеландия</t>
+  </si>
+  <si>
+    <t>Австралия</t>
+  </si>
+  <si>
+    <t>Эквадор</t>
+  </si>
+  <si>
+    <t>Кто этот знаменитый футболист, игрок Динамо в прошлом?</t>
+  </si>
+  <si>
+    <t>Кристиан Нобоа</t>
+  </si>
+  <si>
+    <t>Кто является лучшим бомбардиром Спартака в этом сезоне РПЛ?</t>
+  </si>
+  <si>
+    <t>Абена Миенти</t>
+  </si>
+  <si>
+    <t>Даниил Хлусевич</t>
+  </si>
+  <si>
+    <t>Олег Рябчук</t>
+  </si>
+  <si>
+    <t>Маркиньос</t>
+  </si>
+  <si>
+    <t>dm_makarov</t>
+  </si>
+  <si>
+    <t>dm_mauhub</t>
+  </si>
+  <si>
+    <t>21-летний (05.06.2003) марокканский нападающий. Перешёл в Динамо Москва летом 2024 из Раджа Касабланка</t>
+  </si>
+  <si>
+    <t>Эль-Мехди Маухуб</t>
+  </si>
+  <si>
+    <t>Слован Братислава</t>
+  </si>
+  <si>
+    <t>Спартак Трнава</t>
+  </si>
+  <si>
+    <t>Графсхап</t>
+  </si>
+  <si>
+    <t>Утрехт</t>
+  </si>
+  <si>
+    <t>Брага</t>
+  </si>
+  <si>
+    <t>Шанхай Шэньхуа</t>
+  </si>
+  <si>
+    <t>Кассио</t>
+  </si>
+  <si>
+    <t>Матеус Перейра</t>
+  </si>
+  <si>
+    <t>Уоллас</t>
+  </si>
+  <si>
+    <t>Рафаэль Борре</t>
+  </si>
+  <si>
+    <t>Тиаго Майя</t>
+  </si>
+  <si>
+    <t>8 тур</t>
+  </si>
+  <si>
+    <t>7 тур</t>
+  </si>
+  <si>
+    <t>6 тур</t>
+  </si>
+  <si>
+    <t>9 тур</t>
+  </si>
+  <si>
+    <t>10 тур</t>
+  </si>
+  <si>
+    <t>11 тур</t>
+  </si>
+  <si>
+    <t>num_9</t>
+  </si>
+  <si>
+    <t>num_11</t>
   </si>
 </sst>
 </file>
@@ -3337,18 +3499,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3382,7 +3538,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3396,8 +3552,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11353,7 +11516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B9:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14572,7 +14737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16306,7 +16473,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B26"/>
+      <selection activeCell="B32" sqref="B9:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18039,10 +18206,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q36" sqref="A2:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18051,10 +18218,10 @@
     <col min="2" max="2" width="124.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -18063,7 +18230,7 @@
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -18119,189 +18286,423 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -18416,7 +18817,9 @@
       <c r="B12" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>1092</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -18428,23 +18831,33 @@
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>1128</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>1129</v>
+      </c>
       <c r="L12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>1130</v>
+      </c>
       <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>1131</v>
+      </c>
       <c r="P12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -18453,7 +18866,9 @@
       <c r="B13" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>1093</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -18500,7 +18915,9 @@
       <c r="B14" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>826</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -18512,28 +18929,44 @@
       <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>30</v>
+      </c>
       <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>27</v>
+      </c>
       <c r="L14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <v>21</v>
+      </c>
       <c r="N14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2">
+        <v>19</v>
+      </c>
       <c r="P14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>1064</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
@@ -18543,23 +18976,42 @@
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I15" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K15" s="4" t="s">
+        <v>1094</v>
+      </c>
       <c r="L15" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M15" s="4" t="s">
+        <v>838</v>
+      </c>
       <c r="N15" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O15" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="P15" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q15" s="4" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>1066</v>
       </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
@@ -18569,23 +19021,42 @@
       <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I16" s="4" t="s">
+        <v>1134</v>
+      </c>
       <c r="J16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K16" s="4" t="s">
+        <v>1135</v>
+      </c>
       <c r="L16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M16" s="4" t="s">
+        <v>1136</v>
+      </c>
       <c r="N16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O16" s="4" t="s">
+        <v>1137</v>
+      </c>
       <c r="P16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q16" s="4" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>1067</v>
       </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
@@ -18595,23 +19066,44 @@
       <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="L17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M17" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="N17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O17" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="P17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q17" s="2" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>1069</v>
       </c>
+      <c r="C18" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
@@ -18621,48 +19113,74 @@
       <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O18" s="4"/>
       <c r="P18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>1069</v>
       </c>
+      <c r="C19" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7" t="s">
+        <v>1108</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>1074</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1108</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>20</v>
@@ -18673,23 +19191,34 @@
       <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>1073</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
@@ -18723,77 +19252,437 @@
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="4" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>1081</v>
       </c>
+      <c r="C22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>579</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>1084</v>
+        <v>1098</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>1082</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>1083</v>
       </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="K28" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1088</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="G30" t="s">
-        <v>1092</v>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -18852,7 +19741,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>359</v>
+        <v>1097</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>360</v>
@@ -18900,8 +19789,211 @@
         <v>367</v>
       </c>
     </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>752</v>
+      </c>
+      <c r="F37" t="s">
+        <v>752</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C20" r:id="rId3"/>
+    <hyperlink ref="E20" r:id="rId4"/>
+    <hyperlink ref="E19" r:id="rId5"/>
+    <hyperlink ref="C35" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="1186">
   <si>
     <t>type</t>
   </si>
@@ -3330,12 +3330,6 @@
     <t>Соперничество футбольных клубов «Динамо» и «Спартак» — старейшее из российских и московских дерби, берущее начало с первого матча «Красная Пресня» — «Динамо» 17 июня 1923 года в чемпионате Москвы.</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/mt_spartak_dinamo.jpg</t>
-  </si>
-  <si>
-    <t>17 июня 1923 года</t>
-  </si>
-  <si>
     <t>17 августа 1944</t>
   </si>
   <si>
@@ -3375,9 +3369,6 @@
     <t>С кем сыграет Спартак в следующем туре?</t>
   </si>
   <si>
-    <t>С каким счетом завершилась для Спартака встреча с махачкалинским Динаом в прошлом туре?</t>
-  </si>
-  <si>
     <t>1:1</t>
   </si>
   <si>
@@ -3568,6 +3559,33 @@
   </si>
   <si>
     <t>Уилсон Исидор</t>
+  </si>
+  <si>
+    <t>logo_dinamo_mah</t>
+  </si>
+  <si>
+    <t>32 года</t>
+  </si>
+  <si>
+    <t>30 лет</t>
+  </si>
+  <si>
+    <t>27 лет</t>
+  </si>
+  <si>
+    <t>21 год</t>
+  </si>
+  <si>
+    <t>19 лет</t>
+  </si>
+  <si>
+    <t>35 лет</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча с махачкалинским Динамо в прошлом туре?</t>
+  </si>
+  <si>
+    <t>17 июня 1923</t>
   </si>
 </sst>
 </file>
@@ -5953,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5962,7 +5980,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>20</v>
@@ -5990,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5999,7 +6017,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -6027,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6036,7 +6054,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
@@ -6064,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6073,7 +6091,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
@@ -6105,7 +6123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9853,7 +9871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11752,7 +11770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13384,7 +13402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16704,7 +16722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18438,8 +18458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18449,7 +18469,7 @@
     <col min="3" max="3" width="75" customWidth="1"/>
     <col min="4" max="4" width="198" customWidth="1"/>
     <col min="5" max="5" width="75" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
@@ -19161,38 +19181,38 @@
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2">
-        <v>32</v>
+      <c r="G14" s="2" t="s">
+        <v>1178</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="2">
-        <v>30</v>
+      <c r="I14" s="2" t="s">
+        <v>1179</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="2">
-        <v>27</v>
+      <c r="K14" s="2" t="s">
+        <v>1180</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="2">
-        <v>21</v>
+      <c r="M14" s="2" t="s">
+        <v>1181</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="2">
-        <v>19</v>
+      <c r="O14" s="2" t="s">
+        <v>1182</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="2">
-        <v>35</v>
+      <c r="Q14" s="2" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -19464,43 +19484,43 @@
         <v>1099</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="N20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -19508,7 +19528,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>136</v>
@@ -19521,37 +19541,37 @@
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -19559,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>136</v>
@@ -19620,7 +19640,7 @@
         <v>729</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>729</v>
+        <v>1177</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>730</v>
@@ -19661,7 +19681,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1115</v>
+        <v>1184</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>136</v>
@@ -19674,7 +19694,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -19686,7 +19706,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>20</v>
@@ -19712,7 +19732,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>132</v>
@@ -19763,7 +19783,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -19776,37 +19796,37 @@
         <v>183</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>181</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>179</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>177</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>185</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>187</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -19814,7 +19834,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -19827,37 +19847,37 @@
         <v>181</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>179</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>177</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>185</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>183</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>490</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -19865,7 +19885,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>825</v>
@@ -19878,37 +19898,37 @@
         <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -19916,7 +19936,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>752</v>
@@ -19929,25 +19949,25 @@
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>20</v>
@@ -19959,7 +19979,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -19967,7 +19987,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>236</v>
@@ -19980,13 +20000,13 @@
         <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>20</v>
@@ -19998,19 +20018,19 @@
         <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -20069,7 +20089,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>360</v>
@@ -20122,7 +20142,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -20135,37 +20155,37 @@
         <v>212</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>187</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K33" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="P33" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -20173,7 +20193,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>132</v>
@@ -20224,7 +20244,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1086</v>
@@ -20275,32 +20295,32 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>20</v>
@@ -20312,13 +20332,13 @@
         <v>20</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -20326,7 +20346,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>136</v>
@@ -20354,16 +20374,16 @@
         <v>746</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>406</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>826</v>
@@ -20390,7 +20410,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>20</v>
@@ -20402,13 +20422,13 @@
         <v>20</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>20</v>
@@ -20453,25 +20473,25 @@
         <v>20</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -20510,7 +20530,7 @@
         <v>20</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>20</v>
@@ -20535,16 +20555,16 @@
     <hyperlink ref="C19" r:id="rId6"/>
     <hyperlink ref="E19" r:id="rId7"/>
     <hyperlink ref="C20" r:id="rId8"/>
-    <hyperlink ref="E20" r:id="rId9"/>
-    <hyperlink ref="C35" r:id="rId10"/>
-    <hyperlink ref="C36" r:id="rId11"/>
-    <hyperlink ref="E36" r:id="rId12"/>
-    <hyperlink ref="C38" r:id="rId13"/>
-    <hyperlink ref="E38" r:id="rId14"/>
-    <hyperlink ref="C39" r:id="rId15"/>
-    <hyperlink ref="E39" r:id="rId16"/>
-    <hyperlink ref="C40" r:id="rId17"/>
-    <hyperlink ref="E40" r:id="rId18"/>
+    <hyperlink ref="C35" r:id="rId9"/>
+    <hyperlink ref="C36" r:id="rId10"/>
+    <hyperlink ref="E36" r:id="rId11"/>
+    <hyperlink ref="C38" r:id="rId12"/>
+    <hyperlink ref="E38" r:id="rId13"/>
+    <hyperlink ref="C39" r:id="rId14"/>
+    <hyperlink ref="E39" r:id="rId15"/>
+    <hyperlink ref="C40" r:id="rId16"/>
+    <hyperlink ref="E40" r:id="rId17"/>
+    <hyperlink ref="E20" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="1190">
   <si>
     <t>type</t>
   </si>
@@ -3586,6 +3586,18 @@
   </si>
   <si>
     <t>17 июня 1923</t>
+  </si>
+  <si>
+    <t>31.07.24 Спартак 3:0 Динамо</t>
+  </si>
+  <si>
+    <t>Спартак 1:1 Динамо Махачкала</t>
+  </si>
+  <si>
+    <t>Динамо Москва 4:2 Ахмат</t>
+  </si>
+  <si>
+    <t>16 очков</t>
   </si>
 </sst>
 </file>
@@ -3655,7 +3667,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3669,6 +3681,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18458,19 +18473,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="125" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="198" customWidth="1"/>
-    <col min="5" max="5" width="75" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
@@ -18546,7 +18561,9 @@
       <c r="C2" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>1051</v>
       </c>
@@ -18597,7 +18614,9 @@
       <c r="C3" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>1068</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>1055</v>
       </c>
@@ -19637,7 +19656,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>729</v>
+        <v>1177</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1177</v>
@@ -19686,14 +19705,16 @@
       <c r="C24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>1187</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="5" t="s">
         <v>1113</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -19737,7 +19758,9 @@
       <c r="C25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>1188</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>208</v>
       </c>
@@ -19788,7 +19811,9 @@
       <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>916</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>136</v>
       </c>
@@ -19839,7 +19864,9 @@
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>1189</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>132</v>
       </c>
@@ -20249,7 +20276,9 @@
       <c r="C35" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>1186</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>136</v>
       </c>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -3300,7 +3300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>2 гола в 6 матчах</t>
+          <t>5 голов в 9 матчах</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -5286,22 +5286,22 @@
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
+          <t>kr_spertsjan</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Эдуард Сперцян</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
           <t>kr_mozes</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>Мозес</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>kr_spertsjan</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>Эдуард Сперцян</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -5359,7 +5359,11 @@
           <t>logo_zenit</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>7 голов в 6 играх</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>zs_glushenkov</t>
@@ -5597,15 +5601,15 @@
           <t>Из какого клуба перешёл в Зенит забивной новичок Лусиано Гонду?</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>zs_gondu</t>
         </is>
       </c>
       <c r="D28" s="4" t="n"/>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>zs_gondu</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
@@ -6181,7 +6185,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Кто из этих футболистов Краснодара и Зенита за карьеру забил больше голов?</t>
+          <t>Кто из этих футболистов Краснодара и Зенита забил больше голов за карьеру?</t>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
@@ -6191,7 +6195,7 @@
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Джон Кордоба - 129 мячей, Александр Соболев - 101</t>
+          <t>Джон Кордоба - 129 мячей, Александр Соболев - 101 мяч</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -6276,7 +6280,7 @@
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Серебрянные медали Кубка Америки 2024</t>
+          <t>Серебрянная медаль Кубка Америки 2024</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
@@ -6425,6 +6429,168 @@
         </is>
       </c>
       <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Правда ли, что в составе Зенита присутствует Чемпион Европы по футболу?</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>logo_zenit</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>logo_zenit</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="N38" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="P38" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Правда ли, что Страхинья Эракович был в заявке сборной Сербии на Чемпионате Мира по футболу 2022?</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>zs_erakovich</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>zs_erakovich</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>no_pic</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -6434,14 +6600,12 @@
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E28" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E29" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E30" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E37" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E29" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E30" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E37" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="831">
   <si>
     <t>type</t>
   </si>
@@ -2211,12 +2211,12 @@
     <t>cska_faizulaev</t>
   </si>
   <si>
-    <t>logo_nn</t>
-  </si>
-  <si>
     <t>Кого обыграло Динамо Москва в прошлом туре?</t>
   </si>
   <si>
+    <t>Динамо Махачкала 0:1 Динамо Москва (М. Нгамалё 20')</t>
+  </si>
+  <si>
     <t>ЦСКА 3:0 Ахмат (А. Файзуллаев 19', Хеллвен 42', Д. Тодорович(аг) 59')</t>
   </si>
   <si>
@@ -2247,6 +2247,9 @@
     <t>Адольфо Гайч</t>
   </si>
   <si>
+    <t>Главный тренер ЦСКА с 2024 года</t>
+  </si>
+  <si>
     <t>Кто из текущих игроков ЦСКА дольше всех находится в клубе?</t>
   </si>
   <si>
@@ -2301,9 +2304,15 @@
     <t>На каком месте находится Динамо Москва после десяти туров?</t>
   </si>
   <si>
+    <t>20 очков</t>
+  </si>
+  <si>
     <t>На каком месте находится ЦСКА после десяти туров?</t>
   </si>
   <si>
+    <t>17 очков</t>
+  </si>
+  <si>
     <t>Победой какой команды завершился последний матч между ЦСКА и Динамо?</t>
   </si>
   <si>
@@ -2400,6 +2409,9 @@
     <t>За какую сборную выступает новичок ЦСКА Миралем Пьянич?</t>
   </si>
   <si>
+    <t>За сборную своей страны у Миралема 115 матчей и 18 голов</t>
+  </si>
+  <si>
     <t>Босния и Герцеговина</t>
   </si>
   <si>
@@ -2500,6 +2512,12 @@
   </si>
   <si>
     <t>На каком месте находится ЦСКА после девяти туров?</t>
+  </si>
+  <si>
+    <t>20.10.2024 19:00</t>
+  </si>
+  <si>
+    <t>19.10.2024 19:00</t>
   </si>
 </sst>
 </file>
@@ -2569,7 +2587,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2578,6 +2596,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2885,7 +2909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="A2:Q32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2962,1641 +2988,1641 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="N10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="N17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2" t="s">
+      <c r="P17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="N21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="P21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2" t="s">
+      <c r="N23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
+      <c r="P23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="2" t="s">
+      <c r="N24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
+      <c r="P24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="2" t="s">
+      <c r="N25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2" t="s">
+      <c r="P25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
+      <c r="N26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
+      <c r="P26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="L27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2" t="s">
+      <c r="N27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
+      <c r="P27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="L28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
+      <c r="N28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
+      <c r="P28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="2" t="s">
+      <c r="N31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2" t="s">
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2" t="s">
+      <c r="N32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
+      <c r="P32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10564,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10970,7 +10996,9 @@
       <c r="C8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>829</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>116</v>
       </c>
@@ -11021,7 +11049,9 @@
       <c r="C9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>830</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>544</v>
       </c>
@@ -11044,7 +11074,7 @@
         <v>546</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>728</v>
+        <v>377</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>378</v>
@@ -11067,12 +11097,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>544</v>
       </c>
@@ -11095,7 +11127,7 @@
         <v>546</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>728</v>
+        <v>377</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>378</v>
@@ -11278,7 +11310,9 @@
       <c r="C14" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>740</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>312</v>
       </c>
@@ -11377,28 +11411,28 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>394</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>723</v>
@@ -11419,7 +11453,7 @@
         <v>260</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>282</v>
@@ -11430,13 +11464,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>120</v>
@@ -11445,7 +11479,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -11483,13 +11517,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>723</v>
@@ -11501,10 +11535,10 @@
         <v>724</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>259</v>
@@ -11513,13 +11547,13 @@
         <v>260</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>282</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>281</v>
@@ -11536,13 +11570,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>437</v>
@@ -11557,7 +11591,7 @@
         <v>585</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>444</v>
@@ -11566,10 +11600,10 @@
         <v>445</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>589</v>
@@ -11589,12 +11623,14 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>759</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>120</v>
       </c>
@@ -11640,12 +11676,14 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>761</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>112</v>
       </c>
@@ -11691,13 +11729,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>732</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>120</v>
@@ -11706,7 +11744,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
@@ -11744,13 +11782,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>732</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>732</v>
@@ -11759,37 +11797,37 @@
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -11797,13 +11835,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>732</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>120</v>
@@ -11812,7 +11850,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -11850,13 +11888,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>732</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>112</v>
@@ -11871,31 +11909,31 @@
         <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -11903,13 +11941,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>732</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>120</v>
@@ -11918,7 +11956,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
@@ -11956,16 +11994,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>732</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -11977,7 +12015,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
@@ -12001,7 +12039,7 @@
         <v>20</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -12009,13 +12047,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>732</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>732</v>
@@ -12062,50 +12100,50 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -12113,50 +12151,52 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -12164,14 +12204,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -12183,7 +12223,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>20</v>
@@ -12207,7 +12247,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -12215,52 +12255,52 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -12274,7 +12314,7 @@
         <v>500</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>500</v>
@@ -12324,19 +12364,19 @@
         <v>612</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>613</v>
+        <v>815</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>20</v>
@@ -12354,19 +12394,19 @@
         <v>20</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -12374,16 +12414,16 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>613</v>
+        <v>822</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>20</v>
@@ -12395,19 +12435,19 @@
         <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>20</v>
@@ -12711,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -12849,7 +12889,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -12872,7 +12912,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -12895,7 +12935,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -12918,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -12941,7 +12981,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -12964,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -13267,7 +13307,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -13405,7 +13445,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -13428,7 +13468,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -13451,7 +13491,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -13474,7 +13514,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -13497,7 +13537,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -13520,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -10590,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12472,23 +12472,23 @@
     <hyperlink ref="C23" r:id="rId6"/>
     <hyperlink ref="E23" r:id="rId7"/>
     <hyperlink ref="C24" r:id="rId8"/>
-    <hyperlink ref="C25" r:id="rId9"/>
-    <hyperlink ref="C26" r:id="rId10"/>
-    <hyperlink ref="C27" r:id="rId11"/>
-    <hyperlink ref="C28" r:id="rId12"/>
-    <hyperlink ref="E28" r:id="rId13"/>
-    <hyperlink ref="C29" r:id="rId14"/>
-    <hyperlink ref="E29" r:id="rId15"/>
-    <hyperlink ref="C30" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="C32" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19"/>
-    <hyperlink ref="C33" r:id="rId20"/>
-    <hyperlink ref="E33" r:id="rId21"/>
-    <hyperlink ref="C34" r:id="rId22"/>
-    <hyperlink ref="E34" r:id="rId23"/>
-    <hyperlink ref="C35" r:id="rId24"/>
-    <hyperlink ref="E35" r:id="rId25"/>
+    <hyperlink ref="C26" r:id="rId9"/>
+    <hyperlink ref="C27" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="E29" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="C32" r:id="rId16"/>
+    <hyperlink ref="E32" r:id="rId17"/>
+    <hyperlink ref="C33" r:id="rId18"/>
+    <hyperlink ref="E33" r:id="rId19"/>
+    <hyperlink ref="C34" r:id="rId20"/>
+    <hyperlink ref="E34" r:id="rId21"/>
+    <hyperlink ref="C35" r:id="rId22"/>
+    <hyperlink ref="E35" r:id="rId23"/>
+    <hyperlink ref="C30" r:id="rId24"/>
+    <hyperlink ref="C25" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="870">
   <si>
     <t>type</t>
   </si>
@@ -2211,10 +2211,16 @@
     <t>cska_faizulaev</t>
   </si>
   <si>
+    <t>20.10.2024 19:00</t>
+  </si>
+  <si>
+    <t>19.10.2024 19:00</t>
+  </si>
+  <si>
     <t>Кого обыграло Динамо Москва в прошлом туре?</t>
   </si>
   <si>
-    <t>Динамо Махачкала 0:1 Динамо Москва (М. Нгамалё 20')</t>
+    <t>Динамо Махачкала 0:1 Динамо Москва (М. Нга</t>
   </si>
   <si>
     <t>ЦСКА 3:0 Ахмат (А. Файзуллаев 19', Хеллвен 42', Д. Тодорович(аг) 59')</t>
@@ -2514,10 +2520,121 @@
     <t>На каком месте находится ЦСКА после девяти туров?</t>
   </si>
   <si>
-    <t>20.10.2024 19:00</t>
-  </si>
-  <si>
-    <t>19.10.2024 19:00</t>
+    <t>Победой какой команды завершился последний матч между Спартаком и Краснодаром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РПЛ 23/24. Тур 28. Спартак Москва 1:0 Краснодар (Р. Зобнин 35') </t>
+  </si>
+  <si>
+    <t>Кто этот знаменитый футболист, игрок Спартака в прошлом?</t>
+  </si>
+  <si>
+    <t>Кто этот знаменитый футболист, игрок Краснодара в прошлом?</t>
+  </si>
+  <si>
+    <t>Кого обыграл Спартак в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Краснодар, и за Спартак?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Спартак, и за Краснодар?</t>
+  </si>
+  <si>
+    <t>Кто из текущих игроков Спартака дольше всех находится в клубе?</t>
+  </si>
+  <si>
+    <t>Кто из текущих игроков Краснодара дольше всех находится в клубе?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после девяти туров?</t>
+  </si>
+  <si>
+    <t>Когда состоялся первый матч между Спартаком и Краснодаром?</t>
+  </si>
+  <si>
+    <t>На каком стадионе пройдёт этот матч?</t>
+  </si>
+  <si>
+    <t>logog_fakel</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Краснодара встреча с Химками в прошлом туре?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча Ростовым в прошлом туре?</t>
+  </si>
+  <si>
+    <t>mt_spar_kras_quest.jpg</t>
+  </si>
+  <si>
+    <t>40-летний главный тренер Краснодара с середины сезона 2023/24</t>
+  </si>
+  <si>
+    <t>46-летний главный тренер Спартака с начала сезона 2024/25</t>
+  </si>
+  <si>
+    <t>Вопрос про Абаскаля?</t>
+  </si>
+  <si>
+    <t>В команде с  1 июля 2016 года</t>
+  </si>
+  <si>
+    <t>kr_pantaleao</t>
+  </si>
+  <si>
+    <t>kr_djupin</t>
+  </si>
+  <si>
+    <t>В команде с  2 января 2013 года/</t>
+  </si>
+  <si>
+    <t>Рикарду Мангаш</t>
+  </si>
+  <si>
+    <t>В каком клубе сейчас играет бывший капитан Спартака Георгий Джикия?</t>
+  </si>
+  <si>
+    <t>В какой клуб перешёл молодой российский игрок Леон Классен этим летом из Спартака?</t>
+  </si>
+  <si>
+    <t>Ленгбю</t>
+  </si>
+  <si>
+    <t>Лукойл Арена</t>
+  </si>
+  <si>
+    <t>std_spartak</t>
+  </si>
+  <si>
+    <t>19 побед Спартака и только 9 побед Краснодара</t>
+  </si>
+  <si>
+    <t>Какой из этих клубов чаще побеждал оппонента в официальных очных встречах?</t>
+  </si>
+  <si>
+    <t>Какой крупнейший счёт был в истории этого противостояния?</t>
+  </si>
+  <si>
+    <t>Спартак 6:1 Краснодар</t>
+  </si>
+  <si>
+    <t>РПЛ 20/21. 21-й тур. Спартак 6:1 Краснодар (А. Соболев 1', 61'; К. Промес 8', Дж. Ларссон 63', 83'; Э. Понсе 75' - Ю. Газинский 56')</t>
+  </si>
+  <si>
+    <t>В каком клубе сейчас играет бывший игрок Спартака Джордан Ларсен?</t>
+  </si>
+  <si>
+    <t>Копенгаген</t>
+  </si>
+  <si>
+    <t>sm_larsson.jpg</t>
+  </si>
+  <si>
+    <t>sm_klassen.jpg</t>
+  </si>
+  <si>
+    <t>sm_dzjikia</t>
   </si>
 </sst>
 </file>
@@ -2548,12 +2665,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2598,11 +2721,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2909,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="A2:Q32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,7 +3041,6 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="97" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
@@ -2988,1641 +3110,1641 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="4" t="s">
+      <c r="N17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="4" t="s">
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="4" t="s">
+      <c r="N20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="4" t="s">
+      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="4" t="s">
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="4" t="s">
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="4" t="s">
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="4" t="s">
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="4" t="s">
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="4" t="s">
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="4" t="s">
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="4" t="s">
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="4" t="s">
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="4" t="s">
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="4" t="s">
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="4" t="s">
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="4" t="s">
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="4" t="s">
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="4" t="s">
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="4" t="s">
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>2</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>1</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="4" t="s">
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="4" t="s">
+      <c r="N31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="4" t="s">
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="4" t="s">
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="4" t="s">
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4651,7 +4773,6 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="4" width="201" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -6378,14 +6499,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="125" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="198" customWidth="1"/>
     <col min="5" max="5" width="75" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
@@ -8506,14 +8628,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="104" customWidth="1"/>
     <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="4" max="4" width="201" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -10590,8 +10713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10599,7 +10722,6 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="103" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
-    <col min="4" max="4" width="172" customWidth="1"/>
     <col min="5" max="5" width="72" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
@@ -10996,8 +11118,8 @@
       <c r="C8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>829</v>
+      <c r="D8" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>116</v>
@@ -11049,8 +11171,8 @@
       <c r="C9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>830</v>
+      <c r="D9" s="2" t="s">
+        <v>729</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>544</v>
@@ -11097,13 +11219,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>544</v>
@@ -11156,7 +11278,7 @@
         <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>110</v>
@@ -11203,32 +11325,32 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>20</v>
@@ -11246,7 +11368,7 @@
         <v>20</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -11254,14 +11376,14 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>20</v>
@@ -11273,13 +11395,13 @@
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>20</v>
@@ -11297,7 +11419,7 @@
         <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -11311,7 +11433,7 @@
         <v>312</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>312</v>
@@ -11411,28 +11533,28 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>394</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>723</v>
@@ -11453,7 +11575,7 @@
         <v>260</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>282</v>
@@ -11464,13 +11586,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>120</v>
@@ -11479,7 +11601,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -11517,13 +11639,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>723</v>
@@ -11535,10 +11657,10 @@
         <v>724</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>259</v>
@@ -11547,13 +11669,13 @@
         <v>260</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>282</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>281</v>
@@ -11570,13 +11692,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>437</v>
@@ -11591,7 +11713,7 @@
         <v>585</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>444</v>
@@ -11600,10 +11722,10 @@
         <v>445</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>589</v>
@@ -11623,13 +11745,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>120</v>
@@ -11676,13 +11798,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>112</v>
@@ -11729,13 +11851,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>120</v>
@@ -11744,7 +11866,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
@@ -11782,52 +11904,52 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -11835,13 +11957,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>120</v>
@@ -11850,7 +11972,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -11888,13 +12010,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>112</v>
@@ -11909,31 +12031,31 @@
         <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -11941,13 +12063,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>120</v>
@@ -11956,7 +12078,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
@@ -11994,16 +12116,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -12015,13 +12137,13 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>20</v>
@@ -12039,7 +12161,7 @@
         <v>20</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -12047,16 +12169,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
@@ -12100,50 +12222,50 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -12151,52 +12273,52 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -12204,14 +12326,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -12223,13 +12345,13 @@
         <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>20</v>
@@ -12247,7 +12369,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -12255,52 +12377,52 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -12314,7 +12436,7 @@
         <v>500</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>500</v>
@@ -12364,19 +12486,19 @@
         <v>612</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>20</v>
@@ -12388,25 +12510,25 @@
         <v>20</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -12414,52 +12536,52 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -12472,23 +12594,23 @@
     <hyperlink ref="C23" r:id="rId6"/>
     <hyperlink ref="E23" r:id="rId7"/>
     <hyperlink ref="C24" r:id="rId8"/>
-    <hyperlink ref="C26" r:id="rId9"/>
-    <hyperlink ref="C27" r:id="rId10"/>
-    <hyperlink ref="C28" r:id="rId11"/>
-    <hyperlink ref="E28" r:id="rId12"/>
-    <hyperlink ref="C29" r:id="rId13"/>
-    <hyperlink ref="E29" r:id="rId14"/>
-    <hyperlink ref="E30" r:id="rId15"/>
-    <hyperlink ref="C32" r:id="rId16"/>
-    <hyperlink ref="E32" r:id="rId17"/>
-    <hyperlink ref="C33" r:id="rId18"/>
-    <hyperlink ref="E33" r:id="rId19"/>
-    <hyperlink ref="C34" r:id="rId20"/>
-    <hyperlink ref="E34" r:id="rId21"/>
-    <hyperlink ref="C35" r:id="rId22"/>
-    <hyperlink ref="E35" r:id="rId23"/>
-    <hyperlink ref="C30" r:id="rId24"/>
-    <hyperlink ref="C25" r:id="rId25"/>
+    <hyperlink ref="C25" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="C27" r:id="rId11"/>
+    <hyperlink ref="C28" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="E29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="C33" r:id="rId20"/>
+    <hyperlink ref="E33" r:id="rId21"/>
+    <hyperlink ref="C34" r:id="rId22"/>
+    <hyperlink ref="E34" r:id="rId23"/>
+    <hyperlink ref="C35" r:id="rId24"/>
+    <hyperlink ref="E35" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12496,15 +12618,1349 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D33" t="s">
+        <v>864</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
-    <col min="3" max="5" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="17" width="11" customWidth="1"/>
   </cols>
@@ -12751,7 +14207,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -12797,7 +14253,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -12820,7 +14276,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -12889,7 +14345,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -12912,7 +14368,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -12935,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -12958,7 +14414,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -12981,7 +14437,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -13004,7 +14460,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -13024,582 +14480,92 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>610</v>
+        <v>831</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>832</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="75" customWidth="1"/>
-    <col min="3" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="17" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>862</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5"/>
+    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="873">
   <si>
     <t>type</t>
   </si>
@@ -2635,6 +2635,15 @@
   </si>
   <si>
     <t>sm_dzjikia</t>
+  </si>
+  <si>
+    <t>sm_mangash.jpg</t>
+  </si>
+  <si>
+    <t>Даниил Голиков</t>
+  </si>
+  <si>
+    <t>Дмитрий Пивоваров</t>
   </si>
 </sst>
 </file>
@@ -12621,7 +12630,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12804,27 +12813,57 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -12833,9 +12872,13 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>870</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>870</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>854</v>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="945">
   <si>
     <t>type</t>
   </si>
@@ -441,7 +441,7 @@
     <t>3 гола и 5 передач в 6 матчах</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
   </si>
   <si>
     <t>На каком месте находится Краснодар после шести туров?</t>
@@ -546,13 +546,13 @@
     <t>Антон Митрюшкин</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
   </si>
   <si>
     <t>Краснодар (2013 - 2017, 2018 - 2021), Локомотив (2017 - 2018)</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
   </si>
   <si>
     <t>Даниил Уткин</t>
@@ -573,7 +573,7 @@
     <t>Краснодар (2019 - 2020), Локомотив (2014 - 2019)</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
   </si>
   <si>
     <t>Мануэль Фернандеш</t>
@@ -738,7 +738,7 @@
     <t>Локомотив 2:2 Краснодар</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
   </si>
   <si>
     <t>27-летний (07.03.1997) российский нападающий. Перешёл в Зенит в августе 2024 из Спартака</t>
@@ -762,7 +762,7 @@
     <t>Александр Ерохин</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
   </si>
   <si>
     <t>23-летний (22.01.2001) сербский защитник. Перешёл в Зенит летом 2023 из Црвены Звезды</t>
@@ -783,7 +783,7 @@
     <t>Ильзат Ахметов</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
   </si>
   <si>
     <t>23-летний (22.06.2001) аргентинский нападающий. Перешёл в Зенит в августе 2024 из Аргентинос Хуниорс</t>
@@ -849,7 +849,7 @@
     <t>Виктор Давила</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
   </si>
   <si>
     <t>23-летний (29.07.2001) российский нападающий. Перешёл в ЦСКА зимой 2024 из Балтики</t>
@@ -864,7 +864,7 @@
     <t>Николай Баровский</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
   </si>
   <si>
     <t>20-летний (03.10.2003) узбекский нападающий. Перешёл в ЦСКА летом 2023 из Пахтакора</t>
@@ -879,7 +879,7 @@
     <t>Кто из этих футболистов играл и за ЦСКА, и за Зенит?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
   </si>
   <si>
     <t>Саломон Рондон</t>
@@ -1239,7 +1239,7 @@
     <t>На первом месте по сыгранным матчам с капитанской повязкой за Зенит находится Александр Анюков (134 матча), на втором месте - Владислав Радимов (116 матчей), на третьем - Анатолий Тимощук (86 матчей)</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
   </si>
   <si>
     <t>Александр Анюков</t>
@@ -1266,7 +1266,7 @@
     <t>Как зовут этого игрока Зенита - победителя Кубка УЕФА 2008?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
   </si>
   <si>
     <t>Виктор Файзулин</t>
@@ -1527,7 +1527,7 @@
     <t>Как зовут новичка Динамо Москва, пришедшего этим летом из Крузейро?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
   </si>
   <si>
     <t>Артур Гомес</t>
@@ -1551,7 +1551,7 @@
     <t>В какой клуб перешёл Антон Шунин после окончания контракта с Динамо Москва?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
   </si>
   <si>
     <t>Без клуба</t>
@@ -1566,7 +1566,7 @@
     <t>Кто из этих игроков играл и за Спартак, и за Динамо?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
   </si>
   <si>
     <t>sm_zobnin</t>
@@ -1866,7 +1866,7 @@
     <t>Кто этот знаменитый футболист, игрок Динамо в прошлом?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
   </si>
   <si>
     <t>Кристиан Нобоа</t>
@@ -2112,7 +2112,7 @@
     <t>Кто из этих игроков играл и за Краснодар, и за Зенит?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
   </si>
   <si>
     <t>Зенит (воспитанник - 2011), Краснодар(2013 - н.в.)</t>
@@ -2166,7 +2166,7 @@
     <t>Правда ли, что Игорь Смольников играл и за Зенит, и за Краснодар?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
   </si>
   <si>
     <t>Краснодар(2012 - 2013, 2020 - 2021), Зенит (2013 - 2020)</t>
@@ -2229,7 +2229,7 @@
     <t>Кто из этих игроков играл и за ЦСКА, и за Динамо?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_dinamo_cska.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_dinamo_cska.jpg</t>
   </si>
   <si>
     <t>Ролан Гусев</t>
@@ -2391,7 +2391,7 @@
     <t>За какой из этих клубов не играл новичок ЦСКА Миралем Пьянич?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_planic.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_planic.jpg</t>
   </si>
   <si>
     <t>Челси</t>
@@ -2451,7 +2451,7 @@
     <t>Как зовут форварда, который перешёл в ЦСКА из Сочи в сентябре?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_saul.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_saul.jpg</t>
   </si>
   <si>
     <t>21-летний (18.10.2002) венесуэльский нападающий. Перешёл в ЦСКА осенью 2024 из Сочи</t>
@@ -2478,7 +2478,7 @@
     <t>26-летний (03.07.1998) бразильский нападающий. Перешёл в Динамо Москва осенью 2024 из Крузейро</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/dm_maniche.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_maniche.jpg</t>
   </si>
   <si>
     <t>Играл в Динамо с 2005 по 2006</t>
@@ -2499,7 +2499,7 @@
     <t>Кто этот знаменитый футболист, игрок ЦСКА в прошлом?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_karvalio.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_karvalio.jpg</t>
   </si>
   <si>
     <t>Играл в ЦСКА с 2004 по 2010 года</t>
@@ -2514,136 +2514,352 @@
     <t>Вагнер Лав</t>
   </si>
   <si>
+    <t>kr_djupin</t>
+  </si>
+  <si>
+    <t>Даниил Голиков</t>
+  </si>
+  <si>
+    <t>Дмитрий Пивоваров</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_mangash.jpg</t>
+  </si>
+  <si>
+    <t>Рикарду Мангаш</t>
+  </si>
+  <si>
+    <t>27/10/2024 14:15</t>
+  </si>
+  <si>
+    <t>28/10/2024 18:30</t>
+  </si>
+  <si>
+    <t>Кого обыграл Спартак в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Спартак 3:0 Ростов (Н. Умяров 29', Ш. Николсон 34', 45+4')</t>
+  </si>
+  <si>
+    <t>Краснодар 4:0 Химки (Д. Кордоба 41', 73'; Ж. Батчи 56', К. Кастано 89')</t>
+  </si>
+  <si>
+    <t>logog_fakel</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Краснодар, и за Спартак?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spar_kras_quest.jpg</t>
+  </si>
+  <si>
+    <t>Спартак (2005 - 2009), Краснодар (2014 - 2017)</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/lg_bystrov.jpg</t>
+  </si>
+  <si>
+    <t>Владимир Быстров</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Спартак, и за Краснодар?</t>
+  </si>
+  <si>
+    <t>Спартак (2002 - 2007), Краснодар (2015 - 2017)</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/lg_torbinski.jpg</t>
+  </si>
+  <si>
+    <t>Дмитрий Торбинский</t>
+  </si>
+  <si>
+    <t>Дмитрий Комбаров</t>
+  </si>
+  <si>
+    <t>40-летний главный тренер Краснодара с середины сезона 2023/24</t>
+  </si>
+  <si>
+    <t>46-летний главный тренер Спартака с начала сезона 2024/25</t>
+  </si>
+  <si>
+    <t>Кто из текущих игроков Спартака дольше всех находится в клубе?</t>
+  </si>
+  <si>
+    <t>В команде с  1 июля 2016 года</t>
+  </si>
+  <si>
+    <t>sm_umjarov</t>
+  </si>
+  <si>
+    <t>Наиль Умяров</t>
+  </si>
+  <si>
+    <t>sm_duarte</t>
+  </si>
+  <si>
+    <t>sm_hlusevich</t>
+  </si>
+  <si>
+    <t>sm_maksimenko</t>
+  </si>
+  <si>
+    <t>Александр Максименко</t>
+  </si>
+  <si>
+    <t>sm_selihov</t>
+  </si>
+  <si>
+    <t>Александр Селихов</t>
+  </si>
+  <si>
+    <t>Кто из текущих игроков Краснодара дольше всех находится в клубе?</t>
+  </si>
+  <si>
+    <t>В команде с  2 января 2013 года/</t>
+  </si>
+  <si>
+    <t>kr_pantaleao</t>
+  </si>
+  <si>
+    <t>6 мячей в 11 матчах</t>
+  </si>
+  <si>
+    <t>6 мячей в 7 матчах</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после одиннадцати туров?</t>
+  </si>
+  <si>
+    <t>19 очков</t>
+  </si>
+  <si>
+    <t>На каком месте находится Краснодар после одиннадцати туров?</t>
+  </si>
+  <si>
+    <t>27 очков</t>
+  </si>
+  <si>
+    <t>Победой какой команды завершился последний матч между Спартаком и Краснодаром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РПЛ 23/24. Тур 28. Спартак Москва 1:0 Краснодар (Р. Зобнин 35') </t>
+  </si>
+  <si>
+    <t>Кто этот знаменитый футболист, игрок Спартака в прошлом?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_mazart.jpg</t>
+  </si>
+  <si>
+    <t>Сантос Моцарт выстуцпал за Спартак с 2005 по 2009 года. Сыграл 106 матчей и забил 13 голов</t>
+  </si>
+  <si>
+    <t>Моцарт</t>
+  </si>
+  <si>
+    <t>Пенише</t>
+  </si>
+  <si>
+    <t>Веллитон</t>
+  </si>
+  <si>
+    <t>Алекс</t>
+  </si>
+  <si>
+    <t>Ибсон</t>
+  </si>
+  <si>
+    <t>Рафаэл Кариока</t>
+  </si>
+  <si>
+    <t>Кто этот знаменитый футболист, игрок Краснодара в прошлом?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/kr_matrynovich.jpg</t>
+  </si>
+  <si>
+    <t>Провёл 264 игры за Краснодар и забил 5 мячей</t>
+  </si>
+  <si>
+    <t>Александр Мартынович</t>
+  </si>
+  <si>
+    <t>Одил Ахмедов</t>
+  </si>
+  <si>
+    <t>Рикардо Лаборде</t>
+  </si>
+  <si>
+    <t>Какой из этих клубов чаще побеждал оппонента в официальных очных встречах?</t>
+  </si>
+  <si>
+    <t>19 побед Спартака и только 9 побед Краснодара</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча Ростовым в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Спартак 3:0 Ростов</t>
+  </si>
+  <si>
+    <t>Спартак 3:1 Ростов</t>
+  </si>
+  <si>
+    <t>Спартак 3:2 Ростов</t>
+  </si>
+  <si>
+    <t>Спартак 2:0 Ростов</t>
+  </si>
+  <si>
+    <t>Спартак 1:1 Ростов</t>
+  </si>
+  <si>
+    <t>Спартак 0:1 Ростов</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Краснодара встреча с Химками в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Краснодар 4:0 Химки</t>
+  </si>
+  <si>
+    <t>Краснодар 3:0 Химки</t>
+  </si>
+  <si>
+    <t>Краснодар 2:0 Химки</t>
+  </si>
+  <si>
+    <t>Краснодар 3:1 Химки</t>
+  </si>
+  <si>
+    <t>Краснодар 3:2 Химки</t>
+  </si>
+  <si>
+    <t>Краснодар 1:1 Химки</t>
+  </si>
+  <si>
+    <t>Когда состоялся первый матч между Спартаком и Краснодаром?</t>
+  </si>
+  <si>
+    <t>15.07.2009. Кубок России 1/16. Краснодар 1:2 Спартак</t>
+  </si>
+  <si>
+    <t>15 июля 2009 года</t>
+  </si>
+  <si>
+    <t>7 сентября 2011 года</t>
+  </si>
+  <si>
+    <t>11 ноября 2012 года</t>
+  </si>
+  <si>
+    <t>19 сентября 1987 года</t>
+  </si>
+  <si>
+    <t>21 апреля 1977 года</t>
+  </si>
+  <si>
+    <t>8 августа 1997 года</t>
+  </si>
+  <si>
+    <t>На каком стадионе пройдёт этот матч?</t>
+  </si>
+  <si>
+    <t>std_spartak</t>
+  </si>
+  <si>
+    <t>Лукойл Арена</t>
+  </si>
+  <si>
+    <t>В каком клубе сейчас играет бывший капитан Спартака Георгий Джикия?</t>
+  </si>
+  <si>
+    <t>sm_dzjikia</t>
+  </si>
+  <si>
+    <t>В какой клуб перешёл молодой российский игрок Леон Классен этим летом из Спартака?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_klassen.jpg</t>
+  </si>
+  <si>
+    <t>Ленгбю</t>
+  </si>
+  <si>
+    <t>Валюр</t>
+  </si>
+  <si>
+    <t>Хабнарфьордюр</t>
+  </si>
+  <si>
+    <t>Рейкьявик</t>
+  </si>
+  <si>
+    <t>Копенгаген</t>
+  </si>
+  <si>
+    <t>Мальме</t>
+  </si>
+  <si>
+    <t>Какой крупнейший счёт был в истории этого противостояния?</t>
+  </si>
+  <si>
+    <t>РПЛ 20/21. 21-й тур. Спартак 6:1 Краснодар (А. Соболев 1', 61'; К. Промес 8', Дж. Ларссон 63', 83'; Э. Понсе 75' - Ю. Газинский 56')</t>
+  </si>
+  <si>
+    <t>Спартак 6:1 Краснодар</t>
+  </si>
+  <si>
+    <t>Краснодар 4:0 Спартак</t>
+  </si>
+  <si>
+    <t>Спартак 2:7 Краснодар</t>
+  </si>
+  <si>
+    <t>Спартак 4:1 Краснодар</t>
+  </si>
+  <si>
+    <t>Спартак 5:2 Краснодар</t>
+  </si>
+  <si>
+    <t>Краснодар 5:0 Спартак</t>
+  </si>
+  <si>
+    <t>В каком клубе сейчас играет бывший игрок Спартака Джордан Ларсен?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_larsson.jpg</t>
+  </si>
+  <si>
+    <t>Зальцбург</t>
+  </si>
+  <si>
+    <t>Гамбург</t>
+  </si>
+  <si>
+    <t>ХИК</t>
+  </si>
+  <si>
+    <t>Спартак (2010 - 2013), Краснодар (2013 - 2021)</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/lg_ari.jpg</t>
+  </si>
+  <si>
+    <t>Андреас Гранквист</t>
+  </si>
+  <si>
+    <t>Стипе Плетикоса</t>
+  </si>
+  <si>
+    <t>Марсио Абреу</t>
+  </si>
+  <si>
     <t>На каком месте находится Динамо Москва после девяти туров?</t>
   </si>
   <si>
     <t>На каком месте находится ЦСКА после девяти туров?</t>
-  </si>
-  <si>
-    <t>Победой какой команды завершился последний матч между Спартаком и Краснодаром?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РПЛ 23/24. Тур 28. Спартак Москва 1:0 Краснодар (Р. Зобнин 35') </t>
-  </si>
-  <si>
-    <t>Кто этот знаменитый футболист, игрок Спартака в прошлом?</t>
-  </si>
-  <si>
-    <t>Кто этот знаменитый футболист, игрок Краснодара в прошлом?</t>
-  </si>
-  <si>
-    <t>Кого обыграл Спартак в прошлом туре?</t>
-  </si>
-  <si>
-    <t>Кто из этих игроков играл и за Краснодар, и за Спартак?</t>
-  </si>
-  <si>
-    <t>Кто из этих игроков играл и за Спартак, и за Краснодар?</t>
-  </si>
-  <si>
-    <t>Кто из текущих игроков Спартака дольше всех находится в клубе?</t>
-  </si>
-  <si>
-    <t>Кто из текущих игроков Краснодара дольше всех находится в клубе?</t>
-  </si>
-  <si>
-    <t>На каком месте находится Спартак после девяти туров?</t>
-  </si>
-  <si>
-    <t>Когда состоялся первый матч между Спартаком и Краснодаром?</t>
-  </si>
-  <si>
-    <t>На каком стадионе пройдёт этот матч?</t>
-  </si>
-  <si>
-    <t>logog_fakel</t>
-  </si>
-  <si>
-    <t>С каким счетом завершилась для Краснодара встреча с Химками в прошлом туре?</t>
-  </si>
-  <si>
-    <t>С каким счетом завершилась для Спартака встреча Ростовым в прошлом туре?</t>
-  </si>
-  <si>
-    <t>mt_spar_kras_quest.jpg</t>
-  </si>
-  <si>
-    <t>40-летний главный тренер Краснодара с середины сезона 2023/24</t>
-  </si>
-  <si>
-    <t>46-летний главный тренер Спартака с начала сезона 2024/25</t>
-  </si>
-  <si>
-    <t>Вопрос про Абаскаля?</t>
-  </si>
-  <si>
-    <t>В команде с  1 июля 2016 года</t>
-  </si>
-  <si>
-    <t>kr_pantaleao</t>
-  </si>
-  <si>
-    <t>kr_djupin</t>
-  </si>
-  <si>
-    <t>В команде с  2 января 2013 года/</t>
-  </si>
-  <si>
-    <t>Рикарду Мангаш</t>
-  </si>
-  <si>
-    <t>В каком клубе сейчас играет бывший капитан Спартака Георгий Джикия?</t>
-  </si>
-  <si>
-    <t>В какой клуб перешёл молодой российский игрок Леон Классен этим летом из Спартака?</t>
-  </si>
-  <si>
-    <t>Ленгбю</t>
-  </si>
-  <si>
-    <t>Лукойл Арена</t>
-  </si>
-  <si>
-    <t>std_spartak</t>
-  </si>
-  <si>
-    <t>19 побед Спартака и только 9 побед Краснодара</t>
-  </si>
-  <si>
-    <t>Какой из этих клубов чаще побеждал оппонента в официальных очных встречах?</t>
-  </si>
-  <si>
-    <t>Какой крупнейший счёт был в истории этого противостояния?</t>
-  </si>
-  <si>
-    <t>Спартак 6:1 Краснодар</t>
-  </si>
-  <si>
-    <t>РПЛ 20/21. 21-й тур. Спартак 6:1 Краснодар (А. Соболев 1', 61'; К. Промес 8', Дж. Ларссон 63', 83'; Э. Понсе 75' - Ю. Газинский 56')</t>
-  </si>
-  <si>
-    <t>В каком клубе сейчас играет бывший игрок Спартака Джордан Ларсен?</t>
-  </si>
-  <si>
-    <t>Копенгаген</t>
-  </si>
-  <si>
-    <t>sm_larsson.jpg</t>
-  </si>
-  <si>
-    <t>sm_klassen.jpg</t>
-  </si>
-  <si>
-    <t>sm_dzjikia</t>
-  </si>
-  <si>
-    <t>sm_mangash.jpg</t>
-  </si>
-  <si>
-    <t>Даниил Голиков</t>
-  </si>
-  <si>
-    <t>Дмитрий Пивоваров</t>
   </si>
 </sst>
 </file>
@@ -2674,18 +2890,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2719,7 +2929,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2729,12 +2939,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3041,16 +3245,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
-    <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="5" max="5" width="71" customWidth="1"/>
+    <col min="3" max="3" width="120" customWidth="1"/>
+    <col min="5" max="5" width="123" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -4781,8 +4983,8 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
-    <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="5" max="5" width="73" customWidth="1"/>
+    <col min="3" max="3" width="125" customWidth="1"/>
+    <col min="5" max="5" width="125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -6508,16 +6710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="125" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="5" width="75" customWidth="1"/>
+    <col min="3" max="3" width="127" customWidth="1"/>
+    <col min="5" max="5" width="127" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
@@ -8637,16 +8837,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="104" customWidth="1"/>
-    <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="5" max="5" width="73" customWidth="1"/>
+    <col min="3" max="3" width="128" customWidth="1"/>
+    <col min="5" max="5" width="125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -10722,16 +10920,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="103" customWidth="1"/>
-    <col min="3" max="3" width="72" customWidth="1"/>
-    <col min="5" max="5" width="72" customWidth="1"/>
+    <col min="3" max="3" width="124" customWidth="1"/>
+    <col min="5" max="5" width="124" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -12629,28 +12825,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="90.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="76" customWidth="1"/>
+    <col min="5" max="5" width="76" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -12707,296 +12903,320 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="5" t="s">
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13010,7 +13230,9 @@
       <c r="C8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>834</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>377</v>
       </c>
@@ -13061,7 +13283,9 @@
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>835</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>545</v>
       </c>
@@ -13106,13 +13330,15 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>835</v>
+      <c r="B10" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>837</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>95</v>
       </c>
@@ -13157,13 +13383,15 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>838</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>114</v>
       </c>
@@ -13198,7 +13426,7 @@
         <v>104</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>100</v>
@@ -13206,53 +13434,109 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -13265,7 +13549,7 @@
         <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>201</v>
@@ -13318,7 +13602,7 @@
         <v>462</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>462</v>
@@ -13365,13 +13649,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>514</v>
@@ -13382,29 +13666,49 @@
       <c r="G16" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>168</v>
@@ -13415,34 +13719,34 @@
       <c r="G17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="O17" s="5" t="s">
+      <c r="N17" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>195</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -13456,20 +13760,48 @@
       <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -13481,85 +13813,171 @@
       <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>686</v>
+        <v>869</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>846</v>
+        <v>871</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>872</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
@@ -13598,59 +14016,127 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+        <v>873</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+        <v>882</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>888</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
@@ -13689,304 +14175,501 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4" t="s">
-        <v>845</v>
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>890</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="D26" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
-        <v>844</v>
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>897</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="D27" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>6</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="5" t="s">
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="5" t="s">
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="5" t="s">
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-    </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+        <v>915</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>869</v>
+        <v>917</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>919</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>96</v>
+        <v>920</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>378</v>
+        <v>921</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>117</v>
+        <v>922</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>102</v>
+        <v>923</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>111</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>868</v>
+        <v>925</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>857</v>
+      <c r="G32" s="2" t="s">
+        <v>927</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="2" t="s">
+        <v>928</v>
+      </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="2" t="s">
+        <v>929</v>
+      </c>
       <c r="L32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="2" t="s">
+        <v>930</v>
+      </c>
       <c r="N32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="2" t="s">
+        <v>931</v>
+      </c>
       <c r="P32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D33" t="s">
-        <v>864</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>846</v>
+        <v>933</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>863</v>
+      <c r="G33" s="2" t="s">
+        <v>923</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I33" s="2" t="s">
+        <v>920</v>
+      </c>
       <c r="J33" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K33" s="2" t="s">
+        <v>924</v>
+      </c>
       <c r="L33" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M33" s="2" t="s">
+        <v>935</v>
+      </c>
       <c r="N33" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O33" s="2" t="s">
+        <v>936</v>
+      </c>
       <c r="P33" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>867</v>
+        <v>840</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>866</v>
+      <c r="G34" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I34" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="J34" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K34" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L34" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="M34" s="2" t="s">
+        <v>940</v>
+      </c>
       <c r="N34" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="O34" s="2" t="s">
+        <v>941</v>
+      </c>
       <c r="P34" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q34" s="2" t="s">
+        <v>942</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C31" r:id="rId16"/>
+    <hyperlink ref="E31" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="C33" r:id="rId20"/>
+    <hyperlink ref="E33" r:id="rId21"/>
+    <hyperlink ref="C34" r:id="rId22"/>
+    <hyperlink ref="E34" r:id="rId23"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13994,18 +14677,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="75" customWidth="1"/>
+    <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="17" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -14480,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>829</v>
+        <v>943</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -14503,7 +15185,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>830</v>
+        <v>944</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -14526,11 +15208,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>832</v>
+        <v>872</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -14571,44 +15253,188 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>833</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>834</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>779</v>
       </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>547</v>
       </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>547</v>
       </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>526</v>
       </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>842</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>862</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -441,7 +441,7 @@
     <t>3 гола и 5 передач в 6 матчах</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_batrakov.jpg</t>
   </si>
   <si>
     <t>На каком месте находится Краснодар после шести туров?</t>
@@ -546,13 +546,13 @@
     <t>Антон Митрюшкин</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_loko_krasnodar.jpg</t>
   </si>
   <si>
     <t>Краснодар (2013 - 2017, 2018 - 2021), Локомотив (2017 - 2018)</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/kr_ari.jpg</t>
   </si>
   <si>
     <t>Даниил Уткин</t>
@@ -573,7 +573,7 @@
     <t>Краснодар (2019 - 2020), Локомотив (2014 - 2019)</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/loko_manuel.jpg</t>
   </si>
   <si>
     <t>Мануэль Фернандеш</t>
@@ -738,7 +738,7 @@
     <t>Локомотив 2:2 Краснодар</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_sobolev.jpg</t>
   </si>
   <si>
     <t>27-летний (07.03.1997) российский нападающий. Перешёл в Зенит в августе 2024 из Спартака</t>
@@ -762,7 +762,7 @@
     <t>Александр Ерохин</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_strahiny.jpg</t>
   </si>
   <si>
     <t>23-летний (22.01.2001) сербский защитник. Перешёл в Зенит летом 2023 из Црвены Звезды</t>
@@ -783,7 +783,7 @@
     <t>Ильзат Ахметов</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_gondu.jpg</t>
   </si>
   <si>
     <t>23-летний (22.06.2001) аргентинский нападающий. Перешёл в Зенит в августе 2024 из Аргентинос Хуниорс</t>
@@ -849,7 +849,7 @@
     <t>Виктор Давила</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_musaev.jpg</t>
   </si>
   <si>
     <t>23-летний (29.07.2001) российский нападающий. Перешёл в ЦСКА зимой 2024 из Балтики</t>
@@ -864,7 +864,7 @@
     <t>Николай Баровский</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_faizulaev.jpg</t>
   </si>
   <si>
     <t>20-летний (03.10.2003) узбекский нападающий. Перешёл в ЦСКА летом 2023 из Пахтакора</t>
@@ -879,7 +879,7 @@
     <t>Кто из этих футболистов играл и за ЦСКА, и за Зенит?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
   </si>
   <si>
     <t>Саломон Рондон</t>
@@ -1239,7 +1239,7 @@
     <t>На первом месте по сыгранным матчам с капитанской повязкой за Зенит находится Александр Анюков (134 матча), на втором месте - Владислав Радимов (116 матчей), на третьем - Анатолий Тимощук (86 матчей)</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
   </si>
   <si>
     <t>Александр Анюков</t>
@@ -1266,7 +1266,7 @@
     <t>Как зовут этого игрока Зенита - победителя Кубка УЕФА 2008?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
   </si>
   <si>
     <t>Виктор Файзулин</t>
@@ -1527,7 +1527,7 @@
     <t>Как зовут новичка Динамо Москва, пришедшего этим летом из Крузейро?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_gomez.webp</t>
   </si>
   <si>
     <t>Артур Гомес</t>
@@ -1551,7 +1551,7 @@
     <t>В какой клуб перешёл Антон Шунин после окончания контракта с Динамо Москва?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_shunin.webp</t>
   </si>
   <si>
     <t>Без клуба</t>
@@ -1566,7 +1566,7 @@
     <t>Кто из этих игроков играл и за Спартак, и за Динамо?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo.jpg</t>
   </si>
   <si>
     <t>sm_zobnin</t>
@@ -1866,7 +1866,7 @@
     <t>Кто этот знаменитый футболист, игрок Динамо в прошлом?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_noboa.webp</t>
   </si>
   <si>
     <t>Кристиан Нобоа</t>
@@ -2112,7 +2112,7 @@
     <t>Кто из этих игроков играл и за Краснодар, и за Зенит?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_zenit.jpg</t>
   </si>
   <si>
     <t>Зенит (воспитанник - 2011), Краснодар(2013 - н.в.)</t>
@@ -2166,7 +2166,7 @@
     <t>Правда ли, что Игорь Смольников играл и за Зенит, и за Краснодар?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/zs_smolnikov.jpg</t>
   </si>
   <si>
     <t>Краснодар(2012 - 2013, 2020 - 2021), Зенит (2013 - 2020)</t>
@@ -2229,7 +2229,7 @@
     <t>Кто из этих игроков играл и за ЦСКА, и за Динамо?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_dinamo_cska.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/mt_dinamo_cska.jpg</t>
   </si>
   <si>
     <t>Ролан Гусев</t>
@@ -2391,7 +2391,7 @@
     <t>За какой из этих клубов не играл новичок ЦСКА Миралем Пьянич?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_planic.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_planic.jpg</t>
   </si>
   <si>
     <t>Челси</t>
@@ -2451,7 +2451,7 @@
     <t>Как зовут форварда, который перешёл в ЦСКА из Сочи в сентябре?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_saul.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_saul.jpg</t>
   </si>
   <si>
     <t>21-летний (18.10.2002) венесуэльский нападающий. Перешёл в ЦСКА осенью 2024 из Сочи</t>
@@ -2478,7 +2478,7 @@
     <t>26-летний (03.07.1998) бразильский нападающий. Перешёл в Динамо Москва осенью 2024 из Крузейро</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_maniche.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/dm_maniche.jpg</t>
   </si>
   <si>
     <t>Играл в Динамо с 2005 по 2006</t>
@@ -2499,7 +2499,7 @@
     <t>Кто этот знаменитый футболист, игрок ЦСКА в прошлом?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_karvalio.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/https://amaranth64.github.io/RPL_V2/matchday/images/cska_karvalio.jpg</t>
   </si>
   <si>
     <t>Играл в ЦСКА с 2004 по 2010 года</t>
@@ -2550,7 +2550,7 @@
     <t>Кто из этих игроков играл и за Краснодар, и за Спартак?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spar_kras_quest.jpg</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spa_kras_quest.jpg</t>
   </si>
   <si>
     <t>Спартак (2005 - 2009), Краснодар (2014 - 2017)</t>
@@ -2586,7 +2586,7 @@
     <t>Кто из текущих игроков Спартака дольше всех находится в клубе?</t>
   </si>
   <si>
-    <t>В команде с  1 июля 2016 года</t>
+    <t>В команде с 1 июля 2016 года</t>
   </si>
   <si>
     <t>sm_umjarov</t>
@@ -2616,7 +2616,7 @@
     <t>Кто из текущих игроков Краснодара дольше всех находится в клубе?</t>
   </si>
   <si>
-    <t>В команде с  2 января 2013 года/</t>
+    <t>В команде с 2 января 2013 года</t>
   </si>
   <si>
     <t>kr_pantaleao</t>
@@ -2652,7 +2652,7 @@
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_mazart.jpg</t>
   </si>
   <si>
-    <t>Сантос Моцарт выстуцпал за Спартак с 2005 по 2009 года. Сыграл 106 матчей и забил 13 голов</t>
+    <t>Сантос Моцарт выступал за Спартак с 2005 по 2009 год. Сыграл 106 матчей и забил 13 голов</t>
   </si>
   <si>
     <t>Моцарт</t>
@@ -2775,7 +2775,7 @@
     <t>В каком клубе сейчас играет бывший капитан Спартака Георгий Джикия?</t>
   </si>
   <si>
-    <t>sm_dzjikia</t>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_dzikia.jpg</t>
   </si>
   <si>
     <t>В какой клуб перешёл молодой российский игрок Леон Классен этим летом из Спартака?</t>
@@ -3251,8 +3251,8 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
-    <col min="3" max="3" width="120" customWidth="1"/>
-    <col min="5" max="5" width="123" customWidth="1"/>
+    <col min="3" max="3" width="172" customWidth="1"/>
+    <col min="5" max="5" width="175" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -4983,8 +4983,8 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
-    <col min="3" max="3" width="125" customWidth="1"/>
-    <col min="5" max="5" width="125" customWidth="1"/>
+    <col min="3" max="3" width="177" customWidth="1"/>
+    <col min="5" max="5" width="177" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -6716,8 +6716,8 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="125" customWidth="1"/>
-    <col min="3" max="3" width="127" customWidth="1"/>
-    <col min="5" max="5" width="127" customWidth="1"/>
+    <col min="3" max="3" width="179" customWidth="1"/>
+    <col min="5" max="5" width="179" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
@@ -8843,8 +8843,8 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="104" customWidth="1"/>
-    <col min="3" max="3" width="128" customWidth="1"/>
-    <col min="5" max="5" width="125" customWidth="1"/>
+    <col min="3" max="3" width="180" customWidth="1"/>
+    <col min="5" max="5" width="177" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -10926,8 +10926,8 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="103" customWidth="1"/>
-    <col min="3" max="3" width="124" customWidth="1"/>
-    <col min="5" max="5" width="124" customWidth="1"/>
+    <col min="3" max="3" width="176" customWidth="1"/>
+    <col min="5" max="5" width="176" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -12825,16 +12825,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="5" max="5" width="76" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="5" max="5" width="75" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -14391,11 +14389,11 @@
       <c r="B30" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>916</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>916</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -14660,14 +14658,16 @@
     <hyperlink ref="C28" r:id="rId13"/>
     <hyperlink ref="E28" r:id="rId14"/>
     <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C31" r:id="rId16"/>
-    <hyperlink ref="E31" r:id="rId17"/>
-    <hyperlink ref="C32" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19"/>
-    <hyperlink ref="C33" r:id="rId20"/>
-    <hyperlink ref="E33" r:id="rId21"/>
-    <hyperlink ref="C34" r:id="rId22"/>
-    <hyperlink ref="E34" r:id="rId23"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C31" r:id="rId18"/>
+    <hyperlink ref="E31" r:id="rId19"/>
+    <hyperlink ref="C32" r:id="rId20"/>
+    <hyperlink ref="E32" r:id="rId21"/>
+    <hyperlink ref="C33" r:id="rId22"/>
+    <hyperlink ref="E33" r:id="rId23"/>
+    <hyperlink ref="C34" r:id="rId24"/>
+    <hyperlink ref="E34" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="944">
   <si>
     <t>type</t>
   </si>
@@ -2544,9 +2544,6 @@
     <t>Краснодар 4:0 Химки (Д. Кордоба 41', 73'; Ж. Батчи 56', К. Кастано 89')</t>
   </si>
   <si>
-    <t>logog_fakel</t>
-  </si>
-  <si>
     <t>Кто из этих игроков играл и за Краснодар, и за Спартак?</t>
   </si>
   <si>
@@ -2697,9 +2694,6 @@
     <t>19 побед Спартака и только 9 побед Краснодара</t>
   </si>
   <si>
-    <t>С каким счетом завершилась для Спартака встреча Ростовым в прошлом туре?</t>
-  </si>
-  <si>
     <t>Спартак 3:0 Ростов</t>
   </si>
   <si>
@@ -2860,6 +2854,9 @@
   </si>
   <si>
     <t>На каком месте находится ЦСКА после девяти туров?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча Ростовом в прошлом туре?</t>
   </si>
 </sst>
 </file>
@@ -12825,7 +12822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13424,7 +13423,7 @@
         <v>104</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>839</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>100</v>
@@ -13435,22 +13434,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
@@ -13488,22 +13487,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>20</v>
@@ -13533,7 +13532,7 @@
         <v>20</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -13547,7 +13546,7 @@
         <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>201</v>
@@ -13600,7 +13599,7 @@
         <v>462</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>462</v>
@@ -13647,13 +13646,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>514</v>
@@ -13665,34 +13664,34 @@
         <v>515</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>430</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>422</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -13700,13 +13699,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>168</v>
@@ -13718,7 +13717,7 @@
         <v>169</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -13759,7 +13758,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>569</v>
@@ -13812,7 +13811,7 @@
         <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>131</v>
@@ -13859,13 +13858,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>97</v>
@@ -13912,13 +13911,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>70</v>
@@ -13965,13 +13964,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>97</v>
@@ -14018,52 +14017,52 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -14071,22 +14070,22 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -14110,13 +14109,13 @@
         <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -14124,13 +14123,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>97</v>
@@ -14177,7 +14176,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>890</v>
+        <v>943</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>97</v>
@@ -14192,37 +14191,37 @@
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -14230,7 +14229,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>70</v>
@@ -14245,37 +14244,37 @@
         <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -14283,52 +14282,52 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -14336,20 +14335,20 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
@@ -14387,14 +14386,14 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>114</v>
@@ -14438,50 +14437,50 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="N31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -14489,52 +14488,52 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -14542,50 +14541,50 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -14593,16 +14592,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>841</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
@@ -14626,19 +14625,19 @@
         <v>20</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -14658,16 +14657,16 @@
     <hyperlink ref="C28" r:id="rId13"/>
     <hyperlink ref="E28" r:id="rId14"/>
     <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C30" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="C31" r:id="rId18"/>
-    <hyperlink ref="E31" r:id="rId19"/>
-    <hyperlink ref="C32" r:id="rId20"/>
-    <hyperlink ref="E32" r:id="rId21"/>
-    <hyperlink ref="C33" r:id="rId22"/>
-    <hyperlink ref="E33" r:id="rId23"/>
-    <hyperlink ref="C34" r:id="rId24"/>
-    <hyperlink ref="E34" r:id="rId25"/>
+    <hyperlink ref="C31" r:id="rId16"/>
+    <hyperlink ref="E31" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="C33" r:id="rId20"/>
+    <hyperlink ref="E33" r:id="rId21"/>
+    <hyperlink ref="C34" r:id="rId22"/>
+    <hyperlink ref="E34" r:id="rId23"/>
+    <hyperlink ref="E30" r:id="rId24"/>
+    <hyperlink ref="C30" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15162,7 +15161,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -15185,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -15208,11 +15207,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -15257,7 +15256,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -15280,7 +15279,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -15395,7 +15394,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -15418,7 +15417,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -12823,7 +12823,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14383,7 +14383,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>913</v>
@@ -14396,37 +14396,37 @@
         <v>914</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>96</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>378</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>117</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>102</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>111</v>
@@ -14646,27 +14646,27 @@
     <hyperlink ref="E5" r:id="rId2"/>
     <hyperlink ref="C12" r:id="rId3"/>
     <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="C22" r:id="rId7"/>
-    <hyperlink ref="C23" r:id="rId8"/>
-    <hyperlink ref="E23" r:id="rId9"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="E24" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C28" r:id="rId13"/>
-    <hyperlink ref="E28" r:id="rId14"/>
-    <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C31" r:id="rId16"/>
-    <hyperlink ref="E31" r:id="rId17"/>
-    <hyperlink ref="C32" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19"/>
-    <hyperlink ref="C33" r:id="rId20"/>
-    <hyperlink ref="E33" r:id="rId21"/>
-    <hyperlink ref="C34" r:id="rId22"/>
-    <hyperlink ref="E34" r:id="rId23"/>
-    <hyperlink ref="E30" r:id="rId24"/>
-    <hyperlink ref="C30" r:id="rId25"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="C23" r:id="rId7"/>
+    <hyperlink ref="E23" r:id="rId8"/>
+    <hyperlink ref="C24" r:id="rId9"/>
+    <hyperlink ref="E24" r:id="rId10"/>
+    <hyperlink ref="C25" r:id="rId11"/>
+    <hyperlink ref="C28" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="C31" r:id="rId15"/>
+    <hyperlink ref="E31" r:id="rId16"/>
+    <hyperlink ref="C32" r:id="rId17"/>
+    <hyperlink ref="E32" r:id="rId18"/>
+    <hyperlink ref="C33" r:id="rId19"/>
+    <hyperlink ref="E33" r:id="rId20"/>
+    <hyperlink ref="C34" r:id="rId21"/>
+    <hyperlink ref="E34" r:id="rId22"/>
+    <hyperlink ref="E30" r:id="rId23"/>
+    <hyperlink ref="C30" r:id="rId24"/>
+    <hyperlink ref="C13" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="989">
   <si>
     <t>type</t>
   </si>
@@ -2850,13 +2850,148 @@
     <t>Марсио Абреу</t>
   </si>
   <si>
-    <t>На каком месте находится Динамо Москва после девяти туров?</t>
-  </si>
-  <si>
-    <t>На каком месте находится ЦСКА после девяти туров?</t>
-  </si>
-  <si>
     <t>С каким счетом завершилась для Спартака встреча Ростовом в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Локомотив, и за Зенит?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Зенит, и за Локомотив?</t>
+  </si>
+  <si>
+    <t>Кто из текущих игроков Локомотива находится в клубе дольше всех?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Зенит после двенадцати туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Локомотив после двенадцати туров?</t>
+  </si>
+  <si>
+    <t>Победой какой команды завершился последний матч между Зенитом и Локомотивом?</t>
+  </si>
+  <si>
+    <t>Кто этот знаменитый футболист, игрок Зенита в прошлом?</t>
+  </si>
+  <si>
+    <t>Кто этот знаменитый футболист, игрок Локомотива в прошлом?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Зенита встреча с …  в прошлом туре?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Локомотива встреча с … в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Когда состоялся первый матч между Зенитом и Локомотивом?</t>
+  </si>
+  <si>
+    <t>Какой крупнейший счёт был в истории противостояния Зенита и Локомотива?</t>
+  </si>
+  <si>
+    <t>На каком стадионе пройдёт матч между Локомотивом и Зенитом?</t>
+  </si>
+  <si>
+    <t>27-летний (13.04.1997) колумбийский нападающий. Перешёл в Зенит летом 2022 из Сочи</t>
+  </si>
+  <si>
+    <t>26-летний (15.02.1998) бразильский нападающий. Перешёл в Зенит зимой 2024 из Палмейраса</t>
+  </si>
+  <si>
+    <t>162 гола за 386 игр в сине-бело-голубой футболке (Карьера в Зените: 2001 - 2006, 2010 - 2017)</t>
+  </si>
+  <si>
+    <t>zs_kerzhakov_lg</t>
+  </si>
+  <si>
+    <t>Александр Кержаков</t>
+  </si>
+  <si>
+    <t>Андрей Аршавин</t>
+  </si>
+  <si>
+    <t>Халк</t>
+  </si>
+  <si>
+    <t>Артем Дзюба</t>
+  </si>
+  <si>
+    <t>Владимир Кулик</t>
+  </si>
+  <si>
+    <t>Кто лучший бомбардир в истории Зенита?</t>
+  </si>
+  <si>
+    <t>lm_batrakov</t>
+  </si>
+  <si>
+    <t>lm_lantratov</t>
+  </si>
+  <si>
+    <t>Александр Сильянов</t>
+  </si>
+  <si>
+    <t>Тимофей Митров</t>
+  </si>
+  <si>
+    <t>Евгений Морозов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РПЛ 23/24. Тур 17. Локомотив Москва 3:1 Зенит (М. Кержаков(аг) 8', М. Глушенков 60', Н. Тикнизян 88'- М. Кассьера 41') </t>
+  </si>
+  <si>
+    <t>В клубе с 1 июля 2016 года</t>
+  </si>
+  <si>
+    <t>lm_siljanov</t>
+  </si>
+  <si>
+    <t>lm_fasson</t>
+  </si>
+  <si>
+    <t>Высшая лига СССР, 13-й тур, регулярный сезон, 20.07.1938, Зенит 2:1 Локомотив</t>
+  </si>
+  <si>
+    <t>20 июля 1938 года</t>
+  </si>
+  <si>
+    <t>Высшая лига СССР, 15-й тур, регулярный сезон, 21.08.1958, Зенит 2:7 Локомотив</t>
+  </si>
+  <si>
+    <t>Зенит 2:7 Локомотив</t>
+  </si>
+  <si>
+    <t>Зенит 5:0 Локомотив</t>
+  </si>
+  <si>
+    <t>Зенит 6:0 Локомотив</t>
+  </si>
+  <si>
+    <t>Зенит 5:1 Локомотив</t>
+  </si>
+  <si>
+    <t>Зенит 7:0 Локомотив</t>
+  </si>
+  <si>
+    <t>Зенит 1:7 Локомотив</t>
+  </si>
+  <si>
+    <t>25 июня 1958 года</t>
+  </si>
+  <si>
+    <t>5 августа 1924 года</t>
+  </si>
+  <si>
+    <t>23 сентября 1914 года</t>
+  </si>
+  <si>
+    <t>16 июля 1976 года</t>
+  </si>
+  <si>
+    <t>7 октября 1966 года</t>
+  </si>
+  <si>
+    <t>47 побед у Зенита и 41 победа у Локомотива</t>
   </si>
 </sst>
 </file>
@@ -2887,12 +3022,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2926,7 +3067,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2935,6 +3076,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3242,7 +3392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10917,7 +11069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12822,8 +12976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14176,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>97</v>
@@ -14674,19 +14828,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="17" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -14742,242 +14907,534 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>733</v>
+        <v>942</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -15000,7 +15457,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>733</v>
+        <v>943</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -15020,150 +15477,328 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <v>944</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="E19" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>945</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -15184,9 +15819,11 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>946</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -15207,48 +15844,50 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>870</v>
+        <v>947</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>970</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>123</v>
+        <v>542</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -15256,7 +15895,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>872</v>
+        <v>948</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -15279,7 +15918,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>881</v>
+        <v>949</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -15305,29 +15944,59 @@
         <v>779</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>950</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -15348,9 +16017,11 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>951</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -15371,30 +16042,56 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>526</v>
+        <v>952</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>910</v>
+        <v>954</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -15417,23 +16114,102 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>923</v>
+        <v>953</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>976</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>963</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId5"/>
     <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId6"/>
     <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId7"/>
+    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="1130">
   <si>
     <t>type</t>
   </si>
@@ -3133,18 +3134,308 @@
   </si>
   <si>
     <t>std_gazprom</t>
+  </si>
+  <si>
+    <t>Кто является лучшим бомбардиром в истории этого дерби?</t>
+  </si>
+  <si>
+    <t>Лучший бомбардир в истории дерби — армеец Вагнер Лав, забивший 9 голов. У Спартака 7 мячей забил Сергей Сальников.</t>
+  </si>
+  <si>
+    <t>Квинси Промес</t>
+  </si>
+  <si>
+    <t>Сейду Думбия</t>
+  </si>
+  <si>
+    <t>Антон Заболотный</t>
+  </si>
+  <si>
+    <t>Кому проиграл Спартак в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Спартак, и за ЦСКА?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за ЦСКА, и за Спартак?</t>
+  </si>
+  <si>
+    <t>На каком месте находится ЦСКА после тринадцати туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после тринадцати туров?</t>
+  </si>
+  <si>
+    <t>Когда состоялся первый матч между ЦСКА и Спартаком?</t>
+  </si>
+  <si>
+    <t>На каком стадионе пройдёт матч между Спартаком и ЦСКА?</t>
+  </si>
+  <si>
+    <t>11.11. 17:15. Лукоил Арена</t>
+  </si>
+  <si>
+    <t>10.11. 13:00. Самара Арена</t>
+  </si>
+  <si>
+    <t>Валерий Карпин</t>
+  </si>
+  <si>
+    <t>Руслан Нигматуллин</t>
+  </si>
+  <si>
+    <t>Роман Ерёменко</t>
+  </si>
+  <si>
+    <t>Кто был первым иностранцев, сыгравшим и за Спартак, и за ЦСКА?</t>
+  </si>
+  <si>
+    <t>Леандро Самарони</t>
+  </si>
+  <si>
+    <t>Кто был капитаном Спартака в их последний чемпионский сезон?</t>
+  </si>
+  <si>
+    <t>Кто был тренером ЦСКА в их последний чемпионский сезон?</t>
+  </si>
+  <si>
+    <t>Кто из бывших игроков Спартака является членом списка ФИФА 100?</t>
+  </si>
+  <si>
+    <t>Какое название закрепилось за противостоянием этих двух команд?</t>
+  </si>
+  <si>
+    <t>«Дерби всея Руси»</t>
+  </si>
+  <si>
+    <t>2016/17</t>
+  </si>
+  <si>
+    <t>Айртон Лукас</t>
+  </si>
+  <si>
+    <t>2015/16</t>
+  </si>
+  <si>
+    <t>Леонид Слуцкий</t>
+  </si>
+  <si>
+    <t>Виктор Гончаренко</t>
+  </si>
+  <si>
+    <t>Хуанде Рамос </t>
+  </si>
+  <si>
+    <t>Валерий Газзаев </t>
+  </si>
+  <si>
+    <t>Артур Жорже </t>
+  </si>
+  <si>
+    <t>Ринат Дасаев находится на 27 месте среди лучших футболистов всех времен по мнению легенды Пеле</t>
+  </si>
+  <si>
+    <t>Александр Мостовой</t>
+  </si>
+  <si>
+    <t>Дмитрий Аленичев</t>
+  </si>
+  <si>
+    <t>Виктор Онопко</t>
+  </si>
+  <si>
+    <t>Андрей Старостин</t>
+  </si>
+  <si>
+    <t>cska_samaroni.jpg</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для ЦСКА встреча с Факелом  в прошлом туре?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча с Пари НН в прошлом туре?</t>
+  </si>
+  <si>
+    <t>mt_cska_spartak.jpg</t>
+  </si>
+  <si>
+    <t>rs_karpin</t>
+  </si>
+  <si>
+    <t>Победа ЦСКА</t>
+  </si>
+  <si>
+    <t>Победа Спартака</t>
+  </si>
+  <si>
+    <t>Ничья</t>
+  </si>
+  <si>
+    <t>Как завершился последний матч между ЦСКА и Спартаком?</t>
+  </si>
+  <si>
+    <t>Кто из этих  игроков играл и за Спартак, и за ЦСКА?</t>
+  </si>
+  <si>
+    <t>sm_rjabchuk</t>
+  </si>
+  <si>
+    <t>sm_babich</t>
+  </si>
+  <si>
+    <t>sm_medina</t>
+  </si>
+  <si>
+    <t>Кто из этих действующих игроков Спартака играл за ЦСКА?</t>
+  </si>
+  <si>
+    <t>На 8 месте</t>
+  </si>
+  <si>
+    <t>На 6 месте</t>
+  </si>
+  <si>
+    <t>6 голов в 12 матчах</t>
+  </si>
+  <si>
+    <t>Бокетти</t>
+  </si>
+  <si>
+    <t>Понтус Вернблум</t>
+  </si>
+  <si>
+    <t>Георги Миланов</t>
+  </si>
+  <si>
+    <t>Александр Цауня</t>
+  </si>
+  <si>
+    <t>Карлос Страндберг</t>
+  </si>
+  <si>
+    <t>Бибрас Натхо</t>
+  </si>
+  <si>
+    <t>Тино Коста</t>
+  </si>
+  <si>
+    <t>Хуан Инсаурральде</t>
+  </si>
+  <si>
+    <t>Патрик Эберт</t>
+  </si>
+  <si>
+    <t>Ким Чельстрём</t>
+  </si>
+  <si>
+    <t>ВЭБ Арена</t>
+  </si>
+  <si>
+    <t>std_cska_veb</t>
+  </si>
+  <si>
+    <t>Лукоил Арена</t>
+  </si>
+  <si>
+    <t>Чемпионат Москвы, весна, 25.05.1924</t>
+  </si>
+  <si>
+    <t>25 мая 1924 года</t>
+  </si>
+  <si>
+    <t>25 мая 1946 года</t>
+  </si>
+  <si>
+    <t>25 апреля 1934 года</t>
+  </si>
+  <si>
+    <t>3 сентября 1966 года</t>
+  </si>
+  <si>
+    <t>11 июня 1904 года</t>
+  </si>
+  <si>
+    <t>11 августа 1973 года</t>
+  </si>
+  <si>
+    <t>Кто является самым результативным бомбардиром в российской истории ЦСКА?</t>
+  </si>
+  <si>
+    <t>Лучшим бомбардиром в российской истории ЦСКА является Вагнер Лав.  На его счету 85 голов за 9 сезонов в составе армейцев</t>
+  </si>
+  <si>
+    <t>cska_vagnerlove</t>
+  </si>
+  <si>
+    <t>Фёдор Чалов</t>
+  </si>
+  <si>
+    <t>cska_sluzky</t>
+  </si>
+  <si>
+    <t>«Дерби двух армий»</t>
+  </si>
+  <si>
+    <t>«Московское сражение»</t>
+  </si>
+  <si>
+    <t>«Великое московское дерби»</t>
+  </si>
+  <si>
+    <t>«Битва за сердце Москвы»</t>
+  </si>
+  <si>
+    <t>«Традиция московского футбола»</t>
+  </si>
+  <si>
+    <t>Марек Сухи</t>
+  </si>
+  <si>
+    <t>Элвер Рахимич</t>
+  </si>
+  <si>
+    <t>Кейсуке Хонда</t>
+  </si>
+  <si>
+    <t>Андрей Дикань</t>
+  </si>
+  <si>
+    <t>Вениамин Мандрыкин</t>
+  </si>
+  <si>
+    <t>Георгий Щенников</t>
+  </si>
+  <si>
+    <t>Евгений Алдонин</t>
+  </si>
+  <si>
+    <t>Луис Робсон</t>
+  </si>
+  <si>
+    <t>Николай Писарев</t>
+  </si>
+  <si>
+    <t>Александр Филимонов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3162,13 +3453,63 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3195,32 +3536,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 6" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5254,7 +5642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6987,7 +7377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11197,7 +11589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13102,7 +13496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14954,8 +15350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14963,6 +15359,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
     <col min="3" max="3" width="76" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
     <col min="5" max="5" width="76" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -16694,4 +17091,1889 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>2</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -17060,7 +17060,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18824,7 +18824,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1129</v>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="876" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId7"/>
     <sheet name="mt_spartak_cska" sheetId="8" r:id="rId8"/>
     <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId9"/>
+    <sheet name="mt_spartak_lokomotiv" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5480" uniqueCount="1346">
   <si>
     <t>type</t>
   </si>
@@ -3987,18 +3988,104 @@
   </si>
   <si>
     <t>РПЛ 24/25. 16 тур. 23.11.2024  16:30</t>
+  </si>
+  <si>
+    <t>С какой командой играл Спартак в прошлом туре?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча с Локомотивом в прошлом туре?</t>
+  </si>
+  <si>
+    <t>У кого выиграл Локомотив в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Локомотив, и за Спартак?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков играл и за Спартак, и за Локомотив?</t>
+  </si>
+  <si>
+    <t>Как завершился последний матч между Спартаком и Локомотивом?</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Локомотива встреча с Оренбургом в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Когда состоялся первый матч между Спартаком и Локомотивом?</t>
+  </si>
+  <si>
+    <t>На каком стадионе пройдёт матч между Локомотивом и Спартаком?</t>
+  </si>
+  <si>
+    <t>Кто из этих  игроков играл и за Локомотив, и за Спартак?</t>
+  </si>
+  <si>
+    <t>Кто из этих действующих игроков Локомотива играл за Спартак?</t>
+  </si>
+  <si>
+    <t>Сколько титулов Чемпиона России у этих клубов на двоих?</t>
+  </si>
+  <si>
+    <t>Кто из этих футболистов никогда не играл за Спартак?</t>
+  </si>
+  <si>
+    <t>Кто из этих футболистов никогда не играл за Локомотив?</t>
+  </si>
+  <si>
+    <t>РПЛ 24/25. Тур 10. Локомотив 3:1 Спартак (И. Самошников 7', 36', Д. Воробьев 58' - Э. Барко(пен) 16')</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после пятнадцати туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Локомотив после пятнадцати туров?</t>
+  </si>
+  <si>
+    <t>mt_spartak_lokomotiv_quest.jpg</t>
+  </si>
+  <si>
+    <t>Как зовут единственного ирландца, игравшего за Спартак?</t>
+  </si>
+  <si>
+    <t>Эйден Макгиди</t>
+  </si>
+  <si>
+    <t>Зе Луиш</t>
+  </si>
+  <si>
+    <t>Ивелин Попов</t>
+  </si>
+  <si>
+    <t>Гилерме</t>
+  </si>
+  <si>
+    <t>Джефферсон Фарфан</t>
+  </si>
+  <si>
+    <t>Лоренцо Мельгарехо</t>
+  </si>
+  <si>
+    <t>Бенедикт Хёведес</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4051,23 +4138,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4376,7 +4469,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6101,6 +6196,1281 @@
     <hyperlink ref="E32" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист10"/>
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G23" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>634</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1"/>
+    <hyperlink ref="E40" r:id="rId2"/>
+    <hyperlink ref="C41" r:id="rId3"/>
+    <hyperlink ref="E41" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7843,7 +9213,9 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13961,7 +15333,9 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" activeCellId="1" sqref="A33:XFD33 A30:XFD30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15814,7 +17188,9 @@
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17559,7 +18935,9 @@
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19616,8 +20994,8 @@
   <sheetPr codeName="Лист9"/>
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -21,14 +21,15 @@
     <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId7"/>
     <sheet name="mt_spartak_cska" sheetId="8" r:id="rId8"/>
     <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId9"/>
-    <sheet name="mt_spartak_lokomotiv" sheetId="10" r:id="rId10"/>
+    <sheet name="mt_itogi" sheetId="11" r:id="rId10"/>
+    <sheet name="mt_spartak_lokomotiv" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5480" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5746" uniqueCount="1389">
   <si>
     <t>type</t>
   </si>
@@ -4066,6 +4067,135 @@
   </si>
   <si>
     <t>Бенедикт Хёведес</t>
+  </si>
+  <si>
+    <t>Кто является лучшим ассистентом РПЛ 24/25 после первого круга?</t>
+  </si>
+  <si>
+    <t>Кто является лучшим бомбардиром РПЛ 24/25 после первого круга?</t>
+  </si>
+  <si>
+    <t>Кто получил больше всех желтых карточек по итогам первого круга РПЛ 24/25?</t>
+  </si>
+  <si>
+    <t>Кто получил больше всех красных карточек по итогам первого круга РПЛ 24/25?</t>
+  </si>
+  <si>
+    <t>Сколько всего было забито голов командами за 15 туров?</t>
+  </si>
+  <si>
+    <t>Сколько автоголов было забито за первую половину сезона РПЛ?</t>
+  </si>
+  <si>
+    <t>Кто из этих полевых футболистов провел на поле все 1350 минут первых 15 матчей?</t>
+  </si>
+  <si>
+    <t>Какая команда лидирует в ФНЛ после 18 туров?</t>
+  </si>
+  <si>
+    <t>Кто из этих футболистов начинал каждые 15 матчей на скамейке запасных, но всегда во втором тайме выходил на поле?</t>
+  </si>
+  <si>
+    <t>Какая команда находится на первом месте после 15 туров?</t>
+  </si>
+  <si>
+    <t>Какая команда находится на последнем месте после 15 туров?</t>
+  </si>
+  <si>
+    <t>Какая команда находится на втором месте после 15 туров?</t>
+  </si>
+  <si>
+    <t>Какая команда находится на третьем месте после 15 туров?</t>
+  </si>
+  <si>
+    <t>Какая команда пропустила меньше всех голов по итогам первого круга?</t>
+  </si>
+  <si>
+    <t>Какая команда пропустила больше всех голов по итогам первого круга?</t>
+  </si>
+  <si>
+    <t>Какая команда забила меньше всех голов по итогам первого круга?</t>
+  </si>
+  <si>
+    <t>Какая команда забила больше всех голов по итогам первого круга?</t>
+  </si>
+  <si>
+    <t>Сколько тренеров было уволено по итогам первого круга?</t>
+  </si>
+  <si>
+    <t>Как зовут арбитра, который отсудил больше всех встреч?</t>
+  </si>
+  <si>
+    <t>Как зовут арбитра, который показал больше всех красных карточек?</t>
+  </si>
+  <si>
+    <t>Какой клуб имеет лучшую посещаемость в процентах от вместимости по итогам первого круга?</t>
+  </si>
+  <si>
+    <t>Какой клуб имеет худшую посещаемость в процентах от вместимости по итогам первого круга?</t>
+  </si>
+  <si>
+    <t>std_cska</t>
+  </si>
+  <si>
+    <t>Какой клуб в РПЛ имеет самый возрастной состав?</t>
+  </si>
+  <si>
+    <t>Какой клуб в РПЛ имеет самый молодой состав?</t>
+  </si>
+  <si>
+    <t>В среднем игрокам Химки 27 лет</t>
+  </si>
+  <si>
+    <t>В среднем игрокам Оренбурга 23 года</t>
+  </si>
+  <si>
+    <t>Кто из этих именитых футболистов провёл только 1 матч за свой клуб в текущей РПЛ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краснодар </t>
+  </si>
+  <si>
+    <t>Арсенал</t>
+  </si>
+  <si>
+    <t>Торпедо</t>
+  </si>
+  <si>
+    <t>Ротор</t>
+  </si>
+  <si>
+    <t>logo_rotor</t>
+  </si>
+  <si>
+    <t>logo_arsenal</t>
+  </si>
+  <si>
+    <t>logo_torpedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дуглас Сантос </t>
+  </si>
+  <si>
+    <t>Роналдо</t>
+  </si>
+  <si>
+    <t>Хорен Байрамян</t>
+  </si>
+  <si>
+    <t>Эсекьель Барко</t>
+  </si>
+  <si>
+    <t>30-летний (22.03.1994) бразильский защитник. Перешёл в Зенит летом 2019 из Гамбурга</t>
+  </si>
+  <si>
+    <t>ro_ronaldo</t>
+  </si>
+  <si>
+    <t>ro_bajramjan</t>
+  </si>
+  <si>
+    <t>lm_sulejmanov</t>
   </si>
 </sst>
 </file>
@@ -4143,7 +4273,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4162,6 +4292,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6201,10 +6334,1224 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист11"/>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="B7:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="N3" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="P11" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H26" t="s">
+        <v>693</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист10"/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -7479,7 +8826,9 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13427,7 +14776,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15333,8 +16684,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" activeCellId="1" sqref="A33:XFD33 A30:XFD30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15687,9 +17038,6 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
@@ -17188,8 +18536,8 @@
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20995,7 +22343,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Практика\BromS\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274A0F9-D487-4BCF-A9F9-61FEA66BBF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="876" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="876" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5746" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="1389">
   <si>
     <t>type</t>
   </si>
@@ -4201,7 +4202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4273,7 +4274,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4292,9 +4293,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4598,7 +4596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -6320,25 +6318,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1"/>
-    <hyperlink ref="C23" r:id="rId2"/>
-    <hyperlink ref="E23" r:id="rId3"/>
-    <hyperlink ref="C24" r:id="rId4"/>
-    <hyperlink ref="E24" r:id="rId5"/>
-    <hyperlink ref="C32" r:id="rId6"/>
-    <hyperlink ref="E32" r:id="rId7"/>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Лист11"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="B7:F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6419,7 +6417,9 @@
       <c r="B2" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
         <v>131</v>
@@ -6450,7 +6450,9 @@
       <c r="B3" s="5" t="s">
         <v>1346</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>331</v>
@@ -6497,7 +6499,9 @@
       <c r="B4" s="5" t="s">
         <v>1348</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6518,7 +6522,9 @@
       <c r="B5" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -6536,10 +6542,12 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>1350</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -6557,10 +6565,12 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -6578,10 +6588,12 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>1368</v>
@@ -6625,10 +6637,12 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
         <v>1252</v>
@@ -6672,10 +6686,12 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D10" t="s">
         <v>1385</v>
       </c>
@@ -6721,10 +6737,12 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="E11" t="s">
         <v>1388</v>
       </c>
@@ -6767,10 +6785,12 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>1380</v>
@@ -6814,10 +6834,12 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>1355</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>70</v>
@@ -6861,10 +6883,12 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>105</v>
@@ -6908,10 +6932,12 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>103</v>
@@ -6955,10 +6981,12 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>108</v>
@@ -7002,10 +7030,12 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>70</v>
@@ -7049,10 +7079,12 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>1361</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
         <v>544</v>
@@ -7096,10 +7128,12 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>105</v>
@@ -7143,10 +7177,12 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
         <v>70</v>
@@ -7190,10 +7226,12 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -7211,10 +7249,12 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -7232,10 +7272,12 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -7253,10 +7295,12 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>1371</v>
       </c>
@@ -7302,10 +7346,12 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>1370</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>1372</v>
       </c>
@@ -7354,7 +7400,9 @@
       <c r="B26" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -7386,10 +7434,12 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -7547,7 +7597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Лист10"/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
@@ -8811,10 +8861,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1"/>
-    <hyperlink ref="E40" r:id="rId2"/>
-    <hyperlink ref="C41" r:id="rId3"/>
-    <hyperlink ref="E41" r:id="rId4"/>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="E40" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="C41" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="E41" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -8822,7 +8872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -10530,35 +10580,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="E8" r:id="rId10"/>
-    <hyperlink ref="C9" r:id="rId11"/>
-    <hyperlink ref="E9" r:id="rId12"/>
-    <hyperlink ref="C10" r:id="rId13"/>
-    <hyperlink ref="E10" r:id="rId14"/>
-    <hyperlink ref="C11" r:id="rId15"/>
-    <hyperlink ref="E11" r:id="rId16"/>
-    <hyperlink ref="C12" r:id="rId17"/>
-    <hyperlink ref="C29" r:id="rId18"/>
-    <hyperlink ref="E29" r:id="rId19"/>
-    <hyperlink ref="E30" r:id="rId20"/>
-    <hyperlink ref="C32" r:id="rId21"/>
-    <hyperlink ref="E32" r:id="rId22"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C29" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E29" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E30" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C32" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E32" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
@@ -12664,31 +12714,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1"/>
-    <hyperlink ref="E16" r:id="rId2"/>
-    <hyperlink ref="C17" r:id="rId3"/>
-    <hyperlink ref="E17" r:id="rId4"/>
-    <hyperlink ref="C18" r:id="rId5"/>
-    <hyperlink ref="C19" r:id="rId6"/>
-    <hyperlink ref="E19" r:id="rId7"/>
-    <hyperlink ref="C20" r:id="rId8"/>
-    <hyperlink ref="E20" r:id="rId9"/>
-    <hyperlink ref="C35" r:id="rId10"/>
-    <hyperlink ref="C36" r:id="rId11"/>
-    <hyperlink ref="E36" r:id="rId12"/>
-    <hyperlink ref="C38" r:id="rId13"/>
-    <hyperlink ref="E38" r:id="rId14"/>
-    <hyperlink ref="C39" r:id="rId15"/>
-    <hyperlink ref="E39" r:id="rId16"/>
-    <hyperlink ref="C40" r:id="rId17"/>
-    <hyperlink ref="E40" r:id="rId18"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C35" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C36" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C38" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E38" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C39" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="E39" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C40" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="E40" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -14759,20 +14809,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1"/>
-    <hyperlink ref="E29" r:id="rId2"/>
-    <hyperlink ref="C30" r:id="rId3"/>
-    <hyperlink ref="E30" r:id="rId4"/>
-    <hyperlink ref="C35" r:id="rId5"/>
-    <hyperlink ref="C37" r:id="rId6"/>
-    <hyperlink ref="E37" r:id="rId7"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E30" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C35" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C37" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E37" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Q35"/>
   <sheetViews>
@@ -16649,38 +16699,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="C13" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="C22" r:id="rId5"/>
-    <hyperlink ref="C23" r:id="rId6"/>
-    <hyperlink ref="E23" r:id="rId7"/>
-    <hyperlink ref="C24" r:id="rId8"/>
-    <hyperlink ref="C25" r:id="rId9"/>
-    <hyperlink ref="C26" r:id="rId10"/>
-    <hyperlink ref="C27" r:id="rId11"/>
-    <hyperlink ref="C28" r:id="rId12"/>
-    <hyperlink ref="E28" r:id="rId13"/>
-    <hyperlink ref="C29" r:id="rId14"/>
-    <hyperlink ref="E29" r:id="rId15"/>
-    <hyperlink ref="C30" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="C32" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19"/>
-    <hyperlink ref="C33" r:id="rId20"/>
-    <hyperlink ref="E33" r:id="rId21"/>
-    <hyperlink ref="C34" r:id="rId22"/>
-    <hyperlink ref="E34" r:id="rId23"/>
-    <hyperlink ref="C35" r:id="rId24"/>
-    <hyperlink ref="E35" r:id="rId25"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C27" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C28" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="E28" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="E29" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="E32" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="C33" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="E33" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="C34" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="E34" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="C35" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="E35" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
@@ -18501,38 +18551,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="C12" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="C22" r:id="rId7"/>
-    <hyperlink ref="C23" r:id="rId8"/>
-    <hyperlink ref="E23" r:id="rId9"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="E24" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C28" r:id="rId13"/>
-    <hyperlink ref="E28" r:id="rId14"/>
-    <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C30" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="C31" r:id="rId18"/>
-    <hyperlink ref="E31" r:id="rId19"/>
-    <hyperlink ref="C32" r:id="rId20"/>
-    <hyperlink ref="E32" r:id="rId21"/>
-    <hyperlink ref="C33" r:id="rId22"/>
-    <hyperlink ref="E33" r:id="rId23"/>
-    <hyperlink ref="C34" r:id="rId24"/>
-    <hyperlink ref="E34" r:id="rId25"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="E31" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="C33" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="E33" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="C34" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="E34" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -20256,30 +20306,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="C13" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="C22" r:id="rId5"/>
-    <hyperlink ref="C23" r:id="rId6"/>
-    <hyperlink ref="E23" r:id="rId7"/>
-    <hyperlink ref="C24" r:id="rId8"/>
-    <hyperlink ref="E24" r:id="rId9"/>
-    <hyperlink ref="C25" r:id="rId10"/>
-    <hyperlink ref="C28" r:id="rId11"/>
-    <hyperlink ref="E28" r:id="rId12"/>
-    <hyperlink ref="C29" r:id="rId13"/>
-    <hyperlink ref="C30" r:id="rId14"/>
-    <hyperlink ref="E30" r:id="rId15"/>
-    <hyperlink ref="C32" r:id="rId16"/>
-    <hyperlink ref="E32" r:id="rId17"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="E24" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C25" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="E28" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C29" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C30" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C32" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="E32" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
@@ -22309,36 +22359,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="C12" r:id="rId3"/>
-    <hyperlink ref="C13" r:id="rId4"/>
-    <hyperlink ref="E13" r:id="rId5"/>
-    <hyperlink ref="C22" r:id="rId6"/>
-    <hyperlink ref="E22" r:id="rId7"/>
-    <hyperlink ref="C23" r:id="rId8"/>
-    <hyperlink ref="E23" r:id="rId9"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="E24" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C28" r:id="rId13"/>
-    <hyperlink ref="E28" r:id="rId14"/>
-    <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C31" r:id="rId16"/>
-    <hyperlink ref="E31" r:id="rId17"/>
-    <hyperlink ref="C32" r:id="rId18"/>
-    <hyperlink ref="C33" r:id="rId19"/>
-    <hyperlink ref="E33" r:id="rId20"/>
-    <hyperlink ref="C34" r:id="rId21"/>
-    <hyperlink ref="C38" r:id="rId22"/>
-    <hyperlink ref="E38" r:id="rId23"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="C31" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="E31" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="C33" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="E33" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
+    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
+    <hyperlink ref="C38" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
+    <hyperlink ref="E38" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Лист9"/>
   <dimension ref="A1:Q43"/>
   <sheetViews>
@@ -24636,24 +24686,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="C13" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E16" r:id="rId5"/>
-    <hyperlink ref="C22" r:id="rId6"/>
-    <hyperlink ref="E22" r:id="rId7"/>
-    <hyperlink ref="C23" r:id="rId8"/>
-    <hyperlink ref="E23" r:id="rId9"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="E24" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C28" r:id="rId13"/>
-    <hyperlink ref="E28" r:id="rId14"/>
-    <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C30" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="C31" r:id="rId18"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
+    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
+    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="1450">
   <si>
     <t>type</t>
   </si>
@@ -4376,6 +4376,9 @@
   </si>
   <si>
     <t>lm_samoshnikov</t>
+  </si>
+  <si>
+    <t>8 голов в 15 матчах</t>
   </si>
 </sst>
 </file>
@@ -7684,7 +7687,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7692,6 +7695,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
     <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="84" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
@@ -8615,7 +8619,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1055</v>
+        <v>1449</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>569</v>
@@ -8668,7 +8672,7 @@
         <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>967</v>
+        <v>1321</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>944</v>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId9"/>
     <sheet name="mt_itogi" sheetId="10" r:id="rId10"/>
     <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId11"/>
+    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId12"/>
+    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6606" uniqueCount="1467">
   <si>
     <t>type</t>
   </si>
@@ -4379,6 +4381,57 @@
   </si>
   <si>
     <t>8 голов в 15 матчах</t>
+  </si>
+  <si>
+    <t>Краснодар 2:1 Факел (А. Батраков 29', 90+2' - Е. Марков 84')</t>
+  </si>
+  <si>
+    <t>Как завершился последний матч между Спартаком и Краснодаром?</t>
+  </si>
+  <si>
+    <t>РПЛ 24/25. Тур 10. Краснодар 3:1 Спартак (И. Самошников 7', 36', Д. Воробьев 58' - Э. Барко(пен) 16')</t>
+  </si>
+  <si>
+    <t>Краснодар 3:1 Спартак</t>
+  </si>
+  <si>
+    <t>Краснодар 1:1 Спартак</t>
+  </si>
+  <si>
+    <t>Краснодар 0:1 Спартак</t>
+  </si>
+  <si>
+    <t>Краснодар 1:3 Спартак</t>
+  </si>
+  <si>
+    <t>Краснодар 0:0 Спартак</t>
+  </si>
+  <si>
+    <t>Краснодар 2:1 Спартак</t>
+  </si>
+  <si>
+    <t>На каком стадионе пройдёт матч между Краснодаром и Спартаком?</t>
+  </si>
+  <si>
+    <t>Кто из этих футболистов никогда не играл за Краснодар?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_krasnodar_quest.jpg</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после шестнадцати туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Краснодар после шестнадцати туров?</t>
+  </si>
+  <si>
+    <t>Химки 2:1 Краснодар</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча с Локомотивом в прошлом туре?</t>
+  </si>
+  <si>
+    <t>std_krasnodar</t>
   </si>
 </sst>
 </file>
@@ -4409,12 +4462,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4448,7 +4507,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4457,6 +4516,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4764,8 +4829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7686,8 +7751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9667,6 +9732,2060 @@
     <hyperlink ref="C37" r:id="rId19"/>
     <hyperlink ref="E37" r:id="rId20"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45633.583333333336</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45634.8125</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" display="https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_lokomotiv_quest.jpg"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_lokomotiv_quest.jpg"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="C14" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="C32" r:id="rId8"/>
+    <hyperlink ref="E32" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId10"/>
+    <hyperlink ref="E25" r:id="rId11"/>
+    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId13"/>
+    <hyperlink ref="C33" r:id="rId14"/>
+    <hyperlink ref="E33" r:id="rId15"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17523,7 +19642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19373,7 +21494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23173,7 +25296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:Q21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6606" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6574" uniqueCount="1484">
   <si>
     <t>type</t>
   </si>
@@ -4233,6 +4233,9 @@
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_samedov.jpg</t>
   </si>
   <si>
+    <t>8 голов в 15 матчах</t>
+  </si>
+  <si>
     <t>На каком месте находится Спартак после пятнадцати туров?</t>
   </si>
   <si>
@@ -4347,15 +4350,15 @@
     <t>Ивелин Попов</t>
   </si>
   <si>
+    <t>Гилерме</t>
+  </si>
+  <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/sm_ze_luis.jpg</t>
   </si>
   <si>
     <t>Зе Луиш</t>
   </si>
   <si>
-    <t>Гилерме</t>
-  </si>
-  <si>
     <t>Лоренцо Мельгарехо</t>
   </si>
   <si>
@@ -4380,64 +4383,115 @@
     <t>lm_samoshnikov</t>
   </si>
   <si>
-    <t>8 голов в 15 матчах</t>
-  </si>
-  <si>
-    <t>Краснодар 2:1 Факел (А. Батраков 29', 90+2' - Е. Марков 84')</t>
+    <t>Спартак 5:2 Акрон (М. Угальде 10', 21', 34, 73'; Э. Барко 80' - С. Пиняев 55', Ж. Ньямси 63')</t>
+  </si>
+  <si>
+    <t>Химки 2:2 Краснодар (А. Руденко 84', Д. Вера (пен) 90+4' - Ж. Бахти 84', Ю. Газинский 86')</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_krasnodar_quest.jpg</t>
+  </si>
+  <si>
+    <t>12 голов в 16 матчах</t>
+  </si>
+  <si>
+    <t>8 мячей в 12 матчах</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после шестнадцати туров?</t>
+  </si>
+  <si>
+    <t>31 очко</t>
+  </si>
+  <si>
+    <t>На каком месте находится Краснодар после шестнадцати туров?</t>
+  </si>
+  <si>
+    <t>38 очков</t>
   </si>
   <si>
     <t>Как завершился последний матч между Спартаком и Краснодаром?</t>
   </si>
   <si>
-    <t>РПЛ 24/25. Тур 10. Краснодар 3:1 Спартак (И. Самошников 7', 36', Д. Воробьев 58' - Э. Барко(пен) 16')</t>
-  </si>
-  <si>
-    <t>Краснодар 3:1 Спартак</t>
-  </si>
-  <si>
-    <t>Краснодар 1:1 Спартак</t>
-  </si>
-  <si>
-    <t>Краснодар 0:1 Спартак</t>
-  </si>
-  <si>
-    <t>Краснодар 1:3 Спартак</t>
-  </si>
-  <si>
-    <t>Краснодар 0:0 Спартак</t>
-  </si>
-  <si>
-    <t>Краснодар 2:1 Спартак</t>
+    <t>РПЛ 24/25. Тур 12. Спартак 0:3 Краснодар (К. Ленини 8', Виктор Са 45', Х. Медина (аг) 90+6')</t>
+  </si>
+  <si>
+    <t>Спартак 0:3 Краснодар</t>
+  </si>
+  <si>
+    <t>Спартак 1:1 Краснодар</t>
+  </si>
+  <si>
+    <t>Спартак 0:1 Краснодар</t>
+  </si>
+  <si>
+    <t>Спартак 1:3 Краснодар</t>
+  </si>
+  <si>
+    <t>Спартак 0:0 Краснодар</t>
+  </si>
+  <si>
+    <t>Спартак 2:1 Краснодар</t>
+  </si>
+  <si>
+    <t>С каким счетом завершилась для Спартака встреча с Локомотивом в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Спартак 5:2 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 5:0 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 1:0 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 3:2 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 0:2 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 0:0 Локомотив</t>
+  </si>
+  <si>
+    <t>Химки 2:2 Краснодар</t>
+  </si>
+  <si>
+    <t>Химки 2:1 Краснодар</t>
+  </si>
+  <si>
+    <t>Химки 1:2 Краснодар</t>
+  </si>
+  <si>
+    <t>Химки 1:1 Краснодар</t>
+  </si>
+  <si>
+    <t>Химки 0:4 Краснодар</t>
+  </si>
+  <si>
+    <t>Химки 0:3 Краснодар</t>
   </si>
   <si>
     <t>На каком стадионе пройдёт матч между Краснодаром и Спартаком?</t>
   </si>
   <si>
-    <t>Кто из этих футболистов никогда не играл за Краснодар?</t>
-  </si>
-  <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_krasnodar_quest.jpg</t>
-  </si>
-  <si>
-    <t>На каком месте находится Спартак после шестнадцати туров?</t>
-  </si>
-  <si>
-    <t>На каком месте находится Краснодар после шестнадцати туров?</t>
-  </si>
-  <si>
-    <t>Химки 2:1 Краснодар</t>
-  </si>
-  <si>
-    <t>С каким счетом завершилась для Спартака встреча с Локомотивом в прошлом туре?</t>
-  </si>
-  <si>
     <t>std_krasnodar</t>
+  </si>
+  <si>
+    <t>07.12.2024  14:00</t>
+  </si>
+  <si>
+    <t>08.12.2024  19:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4462,18 +4516,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4518,10 +4566,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4829,9 +4877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7751,16 +7797,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
     <col min="3" max="3" width="84" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="84" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
@@ -8684,7 +8727,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1449</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>569</v>
@@ -8784,13 +8827,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>97</v>
@@ -8837,7 +8880,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -8890,13 +8933,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>1396</v>
@@ -8905,37 +8948,37 @@
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -8946,11 +8989,11 @@
         <v>872</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>20</v>
@@ -8968,7 +9011,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>20</v>
@@ -8986,7 +9029,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -8997,23 +9040,23 @@
         <v>982</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
@@ -9025,19 +9068,19 @@
         <v>20</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -9045,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>97</v>
@@ -9060,37 +9103,37 @@
         <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -9098,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>108</v>
@@ -9113,37 +9156,37 @@
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -9151,7 +9194,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1396</v>
@@ -9202,14 +9245,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
@@ -9221,13 +9264,13 @@
         <v>20</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>20</v>
@@ -9245,7 +9288,7 @@
         <v>20</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -9253,32 +9296,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>1440</v>
-      </c>
       <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>20</v>
@@ -9290,7 +9333,7 @@
         <v>20</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>20</v>
@@ -9304,14 +9347,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
@@ -9335,7 +9378,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>20</v>
@@ -9355,14 +9398,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -9380,7 +9423,7 @@
         <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>20</v>
@@ -9406,7 +9449,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -9422,7 +9465,7 @@
         <v>172</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>53</v>
@@ -9738,31 +9781,31 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="79" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -10146,8 +10189,8 @@
       <c r="C8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="4">
-        <v>45633.583333333336</v>
+      <c r="D8" s="5" t="s">
+        <v>1482</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>377</v>
@@ -10199,8 +10242,8 @@
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="4">
-        <v>45634.8125</v>
+      <c r="D9" s="5" t="s">
+        <v>1483</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>108</v>
@@ -10252,8 +10295,8 @@
       <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>1392</v>
+      <c r="D10" s="2" t="s">
+        <v>1450</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>108</v>
@@ -10305,8 +10348,8 @@
       <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>1450</v>
+      <c r="D11" s="2" t="s">
+        <v>1451</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>114</v>
@@ -10353,84 +10396,103 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>1399</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1265</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1124</v>
+        <v>631</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>841</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>1399</v>
+        <v>842</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>843</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="L13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P13" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -10438,52 +10500,52 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>840</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>633</v>
+        <v>515</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>73</v>
+        <v>631</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>302</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -10491,52 +10553,52 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>840</v>
+        <v>200</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>846</v>
+        <v>849</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>847</v>
+        <v>203</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>515</v>
+        <v>206</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>631</v>
+        <v>207</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>848</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -10544,105 +10606,105 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>201</v>
+        <v>462</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>201</v>
+        <v>462</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>203</v>
+        <v>463</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>205</v>
+        <v>465</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>206</v>
+        <v>466</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>208</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>461</v>
+        <v>851</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>462</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>514</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>20</v>
+        <v>853</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>464</v>
+        <v>854</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>20</v>
+        <v>855</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
+        <v>856</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>20</v>
+        <v>857</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>326</v>
+        <v>858</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>20</v>
+        <v>859</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>467</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -10650,52 +10712,52 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>514</v>
+        <v>168</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>514</v>
+        <v>168</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>515</v>
+        <v>169</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>854</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>855</v>
+        <v>638</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>430</v>
+        <v>639</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>856</v>
+        <v>34</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>422</v>
+        <v>36</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>857</v>
+        <v>829</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>858</v>
+        <v>195</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>859</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>860</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -10703,52 +10765,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>861</v>
+        <v>620</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>862</v>
+        <v>1453</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>168</v>
+        <v>569</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>168</v>
+        <v>569</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>863</v>
+        <v>432</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>639</v>
+        <v>435</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>34</v>
+        <v>514</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>36</v>
+        <v>515</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>829</v>
+        <v>623</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>195</v>
+        <v>624</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>72</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>135</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -10756,105 +10818,105 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>620</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1449</v>
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1454</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>569</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>569</v>
+        <v>131</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>421</v>
+        <v>132</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>432</v>
+        <v>27</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>434</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>621</v>
+        <v>34</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>514</v>
+        <v>133</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>515</v>
+        <v>134</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>623</v>
+        <v>72</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>624</v>
+        <v>135</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>436</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>428</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>1455</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>1212</v>
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1456</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>25</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -10862,105 +10924,105 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>1401</v>
+      <c r="D22" s="2" t="s">
+        <v>1458</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="P22" s="2" t="s">
-        <v>381</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>382</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>143</v>
+        <v>1464</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>144</v>
+        <v>1465</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>145</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -10968,52 +11030,52 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1451</v>
+        <v>872</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1461</v>
+        <v>873</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1452</v>
+        <v>874</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1461</v>
+        <v>873</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1453</v>
+        <v>875</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1454</v>
+        <v>876</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1455</v>
+        <v>877</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1456</v>
+        <v>878</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1457</v>
+        <v>879</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>1458</v>
+        <v>880</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -11021,52 +11083,52 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>873</v>
+        <v>1467</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>873</v>
+        <v>1450</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>875</v>
+        <v>1468</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>876</v>
+        <v>1469</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>877</v>
+        <v>1470</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>878</v>
+        <v>1471</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>879</v>
+        <v>1472</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>880</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -11074,87 +11136,103 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
+        <v>896</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>1474</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>1475</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>1476</v>
+      </c>
       <c r="L26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>1477</v>
+      </c>
       <c r="N26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>1478</v>
+      </c>
       <c r="P26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1392</v>
-      </c>
+        <v>1480</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>1481</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1421</v>
+        <v>347</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1422</v>
+        <v>1106</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1423</v>
+        <v>1106</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>1424</v>
+        <v>1106</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>1425</v>
+        <v>1106</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>1426</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -11162,309 +11240,132 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>924</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>925</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>926</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1464</v>
+        <v>927</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1464</v>
+        <v>928</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1464</v>
+        <v>929</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>1464</v>
+        <v>930</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>1464</v>
+        <v>931</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1459</v>
+        <v>903</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>1466</v>
+        <v>840</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>347</v>
+        <v>905</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1106</v>
+        <v>906</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1106</v>
+        <v>907</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1106</v>
+        <v>908</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>1106</v>
+        <v>909</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>1106</v>
+        <v>910</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>1124</v>
-      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>910</v>
-      </c>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" display="https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_lokomotiv_quest.jpg"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_lokomotiv_quest.jpg"/>
-    <hyperlink ref="E13" r:id="rId3"/>
-    <hyperlink ref="C14" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="C15" r:id="rId6"/>
-    <hyperlink ref="E15" r:id="rId7"/>
-    <hyperlink ref="C32" r:id="rId8"/>
-    <hyperlink ref="E32" r:id="rId9"/>
-    <hyperlink ref="C25" r:id="rId10"/>
-    <hyperlink ref="E25" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
-    <hyperlink ref="E5" r:id="rId13"/>
-    <hyperlink ref="C33" r:id="rId14"/>
-    <hyperlink ref="E33" r:id="rId15"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="C23" r:id="rId9"/>
+    <hyperlink ref="E23" r:id="rId10"/>
+    <hyperlink ref="C24" r:id="rId11"/>
+    <hyperlink ref="E24" r:id="rId12"/>
+    <hyperlink ref="C27" r:id="rId13"/>
+    <hyperlink ref="C28" r:id="rId14"/>
+    <hyperlink ref="E28" r:id="rId15"/>
+    <hyperlink ref="C29" r:id="rId16"/>
+    <hyperlink ref="E29" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11474,14 +11375,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -11539,83 +11442,233 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -11624,6 +11677,21 @@
       <c r="B12" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -11632,6 +11700,21 @@
       <c r="B13" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -11640,6 +11723,21 @@
       <c r="B14" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -11648,6 +11746,21 @@
       <c r="B15" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -11656,134 +11769,389 @@
       <c r="B16" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19642,9 +20010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21494,9 +21860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25296,9 +25660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:Q21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -4389,9 +4389,6 @@
     <t>Химки 2:2 Краснодар (А. Руденко 84', Д. Вера (пен) 90+4' - Ж. Бахти 84', Ю. Газинский 86')</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_krasnodar_quest.jpg</t>
-  </si>
-  <si>
     <t>12 голов в 16 матчах</t>
   </si>
   <si>
@@ -4483,6 +4480,9 @@
   </si>
   <si>
     <t>08.12.2024  19:30</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_krasnodar_spartak_quest.jpg</t>
   </si>
 </sst>
 </file>
@@ -4555,7 +4555,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4571,6 +4571,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9783,8 +9787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10190,7 +10194,7 @@
         <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>377</v>
@@ -10243,7 +10247,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>108</v>
@@ -10398,8 +10402,8 @@
       <c r="B12" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>1452</v>
+      <c r="C12" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
@@ -10449,8 +10453,8 @@
       <c r="B13" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>840</v>
+      <c r="C13" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>841</v>
@@ -10502,8 +10506,8 @@
       <c r="B14" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>840</v>
+      <c r="C14" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>845</v>
@@ -10771,7 +10775,7 @@
         <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>569</v>
@@ -10824,7 +10828,7 @@
         <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>131</v>
@@ -10871,13 +10875,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>1455</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1456</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>97</v>
@@ -10924,13 +10928,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1458</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>70</v>
@@ -10977,52 +10981,52 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -11083,7 +11087,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>97</v>
@@ -11098,37 +11102,37 @@
         <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>1472</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -11151,37 +11155,37 @@
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>1478</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -11189,14 +11193,14 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1452</v>
+        <v>1479</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -11242,14 +11246,14 @@
       <c r="B28" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>840</v>
+      <c r="C28" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>840</v>
+      <c r="E28" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
@@ -11295,14 +11299,14 @@
       <c r="B29" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>840</v>
+      <c r="C29" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>840</v>
+      <c r="E29" s="6" t="s">
+        <v>1483</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
@@ -11352,20 +11356,20 @@
     <hyperlink ref="C5" r:id="rId1"/>
     <hyperlink ref="E5" r:id="rId2"/>
     <hyperlink ref="C12" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="E24" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
     <hyperlink ref="C14" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8"/>
-    <hyperlink ref="C23" r:id="rId9"/>
-    <hyperlink ref="E23" r:id="rId10"/>
-    <hyperlink ref="C24" r:id="rId11"/>
-    <hyperlink ref="E24" r:id="rId12"/>
-    <hyperlink ref="C27" r:id="rId13"/>
-    <hyperlink ref="C28" r:id="rId14"/>
-    <hyperlink ref="E28" r:id="rId15"/>
-    <hyperlink ref="C29" r:id="rId16"/>
-    <hyperlink ref="E29" r:id="rId17"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E23" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="E29" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="C28" r:id="rId15"/>
+    <hyperlink ref="C27" r:id="rId16"/>
+    <hyperlink ref="C23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7527" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7527" uniqueCount="1550">
   <si>
     <t>type</t>
   </si>
@@ -4540,9 +4540,6 @@
     <t>На каком месте находится ЦСКА после восемнадцатии туров?</t>
   </si>
   <si>
-    <t>Победой какой команды завершилась последняя встреча Зенита и ЦСКА?</t>
-  </si>
-  <si>
     <t>zs_dukeiros</t>
   </si>
   <si>
@@ -4636,9 +4633,6 @@
     <t>31 очков</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/mt_cska_zenit.jpg</t>
-  </si>
-  <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
   </si>
   <si>
@@ -4679,6 +4673,15 @@
   </si>
   <si>
     <t>Гремио</t>
+  </si>
+  <si>
+    <t>С каким счётом завершилась последняя встреча Зенита и ЦСКА?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/mt_zenit_cska_quest.jpg</t>
+  </si>
+  <si>
+    <t>zs_karavaev</t>
   </si>
 </sst>
 </file>
@@ -13351,7 +13354,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13489,19 +13492,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>1504</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1505</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
@@ -13542,13 +13545,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1507</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
@@ -13595,19 +13598,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>1509</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1510</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
@@ -13637,7 +13640,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13648,22 +13651,22 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>1512</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1513</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>20</v>
@@ -13675,7 +13678,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>20</v>
@@ -13698,25 +13701,25 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>1516</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1517</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>20</v>
@@ -13751,25 +13754,25 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1518</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>1520</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1521</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>20</v>
@@ -13804,19 +13807,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1522</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>1523</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>20</v>
@@ -13910,7 +13913,7 @@
         <v>1498</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>1026</v>
@@ -14019,7 +14022,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>99</v>
@@ -14072,7 +14075,7 @@
         <v>112</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>114</v>
@@ -14125,7 +14128,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>101</v>
@@ -14178,7 +14181,7 @@
         <v>112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>99</v>
@@ -14231,7 +14234,7 @@
         <v>103</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>330</v>
@@ -14243,10 +14246,10 @@
         <v>241</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>334</v>
@@ -14284,7 +14287,7 @@
         <v>112</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>726</v>
@@ -14308,16 +14311,16 @@
         <v>724</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>1513</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>1522</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>1514</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>727</v>
@@ -14337,7 +14340,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>103</v>
@@ -14390,7 +14393,7 @@
         <v>112</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>112</v>
@@ -14496,7 +14499,7 @@
         <v>312</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>312</v>
@@ -14540,55 +14543,55 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1502</v>
+        <v>1547</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>1537</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="N23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="P23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>1541</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>1542</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -14599,11 +14602,11 @@
         <v>283</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="7" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
@@ -14650,11 +14653,11 @@
         <v>283</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="7" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
@@ -14701,11 +14704,11 @@
         <v>283</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="7" t="s">
-        <v>1534</v>
+      <c r="E26" s="4" t="s">
+        <v>1549</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
@@ -14752,7 +14755,7 @@
         <v>303</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -14809,7 +14812,7 @@
         <v>403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
@@ -14856,11 +14859,11 @@
         <v>412</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
@@ -14904,20 +14907,20 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
@@ -14935,19 +14938,19 @@
         <v>20</v>
       </c>
       <c r="M30" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>1546</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>1547</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -15066,17 +15069,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1"/>
-    <hyperlink ref="E28" r:id="rId2"/>
-    <hyperlink ref="C29" r:id="rId3"/>
-    <hyperlink ref="E29" r:id="rId4"/>
-    <hyperlink ref="C25" r:id="rId5"/>
-    <hyperlink ref="C26" r:id="rId6"/>
-    <hyperlink ref="C27" r:id="rId7"/>
-    <hyperlink ref="E24" r:id="rId8"/>
-    <hyperlink ref="E25" r:id="rId9"/>
-    <hyperlink ref="E26" r:id="rId10"/>
-    <hyperlink ref="C23" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId1"/>
+    <hyperlink ref="C29" r:id="rId2"/>
+    <hyperlink ref="E29" r:id="rId3"/>
+    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="C24" r:id="rId5"/>
+    <hyperlink ref="C25" r:id="rId6"/>
+    <hyperlink ref="C26" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="E26" r:id="rId9" display="https://amaranth64.github.io/RPL_V2/matchday/mt_zenit_cska_quest.jpg"/>
+    <hyperlink ref="E25" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
     <hyperlink ref="E23" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -4678,10 +4678,10 @@
     <t>С каким счётом завершилась последняя встреча Зенита и ЦСКА?</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/mt_zenit_cska_quest.jpg</t>
-  </si>
-  <si>
     <t>zs_karavaev</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_zenit_cska_quest.jpg</t>
   </si>
 </sst>
 </file>
@@ -13354,7 +13354,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14549,13 +14549,13 @@
         <v>1547</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>1535</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>20</v>
@@ -14602,11 +14602,11 @@
         <v>283</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
@@ -14653,11 +14653,11 @@
         <v>283</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
@@ -14704,11 +14704,11 @@
         <v>283</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
@@ -14755,7 +14755,7 @@
         <v>303</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -14859,7 +14859,7 @@
         <v>412</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1533</v>
+        <v>1549</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="7" t="s">
@@ -15070,17 +15070,17 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1"/>
-    <hyperlink ref="C29" r:id="rId2"/>
-    <hyperlink ref="E29" r:id="rId3"/>
-    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="E29" r:id="rId2"/>
+    <hyperlink ref="C23" r:id="rId3"/>
+    <hyperlink ref="E26" r:id="rId4" display="https://amaranth64.github.io/RPL_V2/matchday/mt_zenit_cska_quest.jpg"/>
     <hyperlink ref="C24" r:id="rId5"/>
     <hyperlink ref="C25" r:id="rId6"/>
     <hyperlink ref="C26" r:id="rId7"/>
     <hyperlink ref="C27" r:id="rId8"/>
-    <hyperlink ref="E26" r:id="rId9" display="https://amaranth64.github.io/RPL_V2/matchday/mt_zenit_cska_quest.jpg"/>
-    <hyperlink ref="E25" r:id="rId10"/>
+    <hyperlink ref="C29" r:id="rId9"/>
+    <hyperlink ref="E23" r:id="rId10"/>
     <hyperlink ref="E24" r:id="rId11"/>
-    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E25" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,18 @@
     <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId12"/>
     <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId13"/>
     <sheet name="mt_zenit_cska" sheetId="14" r:id="rId14"/>
+    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId15"/>
+    <sheet name="mt_spartak_zenit" sheetId="16" r:id="rId16"/>
+    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId17"/>
+    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId18"/>
+    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7527" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7961" uniqueCount="1595">
   <si>
     <t>type</t>
   </si>
@@ -4682,6 +4687,141 @@
   </si>
   <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_zenit_cska_quest.jpg</t>
+  </si>
+  <si>
+    <t>rk_grizaenko</t>
+  </si>
+  <si>
+    <t>Российский защитник</t>
+  </si>
+  <si>
+    <t>Никита Васильев</t>
+  </si>
+  <si>
+    <t>rk_teslenko</t>
+  </si>
+  <si>
+    <t>rk_staver</t>
+  </si>
+  <si>
+    <t>Российский вратарь</t>
+  </si>
+  <si>
+    <t>Евгений Ставер</t>
+  </si>
+  <si>
+    <t>sm_pomazun</t>
+  </si>
+  <si>
+    <t>Данил Пруцев</t>
+  </si>
+  <si>
+    <t>Никита Чернов</t>
+  </si>
+  <si>
+    <t>sm_mangash</t>
+  </si>
+  <si>
+    <t>Португальский защитник</t>
+  </si>
+  <si>
+    <t>Кристофер Мартинс</t>
+  </si>
+  <si>
+    <t>sm_solari</t>
+  </si>
+  <si>
+    <t>Аргентинский нападающий</t>
+  </si>
+  <si>
+    <t>Пабло Солари</t>
+  </si>
+  <si>
+    <t>sm_pruziv</t>
+  </si>
+  <si>
+    <t>Илья Свинов</t>
+  </si>
+  <si>
+    <t>sm_garsia</t>
+  </si>
+  <si>
+    <t>Нападающий из Тринидада и Тобаго</t>
+  </si>
+  <si>
+    <t>Леви Гарсия</t>
+  </si>
+  <si>
+    <t>Кто из этих футболистов играл и за Спартак, и за Рубин?</t>
+  </si>
+  <si>
+    <t>С каким счётом завершилась последняя встреча Рубина и Спартака?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Рубин после девятнадцати туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после девятнадцати туров?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_rubin_spartak_quest.jpg</t>
+  </si>
+  <si>
+    <t>21 тур. 16.03.2025. 19:45</t>
+  </si>
+  <si>
+    <t>Спартак 2:0 Оренбург (М. Угальде 51', П. Солари 90+6')</t>
+  </si>
+  <si>
+    <t>Ахмат 2:1 Рубин (Н. Гандри 41', 63' - Д. Шабанхаджай 10')</t>
+  </si>
+  <si>
+    <t>21 тур. 16.03.2025. 15:15</t>
+  </si>
+  <si>
+    <t>9 голов в 18 матчах</t>
+  </si>
+  <si>
+    <t>16 голов в 19 матчах</t>
+  </si>
+  <si>
+    <t>Валентин Вада</t>
+  </si>
+  <si>
+    <t>rk_vada</t>
+  </si>
+  <si>
+    <t>rk_vujachich</t>
+  </si>
+  <si>
+    <t>26 очков</t>
+  </si>
+  <si>
+    <t>40 очков</t>
+  </si>
+  <si>
+    <t>Спартак 1:0 Рубин (Э. Барко 74')</t>
+  </si>
+  <si>
+    <t>Спартак 1:0 Рубин</t>
+  </si>
+  <si>
+    <t>Спартак 1:2 Рубин</t>
+  </si>
+  <si>
+    <t>Спартак 0:2 Рубин</t>
+  </si>
+  <si>
+    <t>Спартак 2:0 Рубин</t>
+  </si>
+  <si>
+    <t>Спартак 3:0 Рубин</t>
+  </si>
+  <si>
+    <t>Спартак 0:0 Рубин</t>
+  </si>
+  <si>
+    <t>kh_bakaev</t>
   </si>
 </sst>
 </file>
@@ -4751,7 +4891,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4771,6 +4911,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -9984,7 +10128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13353,8 +13499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" activeCellId="12" sqref="A13:XFD13 A14:XFD14 A15:XFD15 A16:XFD16 A17:XFD17 A18:XFD18 A19:XFD19 A20:XFD20 A22:XFD22 A21:XFD21 A23:XFD23 A25:XFD25 A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15082,6 +15228,1527 @@
     <hyperlink ref="E24" r:id="rId11"/>
     <hyperlink ref="E25" r:id="rId12"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/RPL_V2/xlsx/Матч Тура 24-25.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 24-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7961" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8295" uniqueCount="1603">
   <si>
     <t>type</t>
   </si>
@@ -4689,42 +4689,12 @@
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_zenit_cska_quest.jpg</t>
   </si>
   <si>
-    <t>rk_grizaenko</t>
-  </si>
-  <si>
-    <t>Российский защитник</t>
-  </si>
-  <si>
-    <t>Никита Васильев</t>
-  </si>
-  <si>
-    <t>rk_teslenko</t>
-  </si>
-  <si>
-    <t>rk_staver</t>
-  </si>
-  <si>
     <t>Российский вратарь</t>
   </si>
   <si>
-    <t>Евгений Ставер</t>
-  </si>
-  <si>
-    <t>sm_pomazun</t>
-  </si>
-  <si>
     <t>Данил Пруцев</t>
   </si>
   <si>
-    <t>Никита Чернов</t>
-  </si>
-  <si>
-    <t>sm_mangash</t>
-  </si>
-  <si>
-    <t>Португальский защитник</t>
-  </si>
-  <si>
     <t>Кристофер Мартинс</t>
   </si>
   <si>
@@ -4752,33 +4722,12 @@
     <t>Леви Гарсия</t>
   </si>
   <si>
-    <t>Кто из этих футболистов играл и за Спартак, и за Рубин?</t>
-  </si>
-  <si>
-    <t>С каким счётом завершилась последняя встреча Рубина и Спартака?</t>
-  </si>
-  <si>
-    <t>На каком месте находится Рубин после девятнадцати туров?</t>
-  </si>
-  <si>
     <t>На каком месте находится Спартак после девятнадцати туров?</t>
   </si>
   <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_rubin_spartak_quest.jpg</t>
   </si>
   <si>
-    <t>21 тур. 16.03.2025. 19:45</t>
-  </si>
-  <si>
-    <t>Спартак 2:0 Оренбург (М. Угальде 51', П. Солари 90+6')</t>
-  </si>
-  <si>
-    <t>Ахмат 2:1 Рубин (Н. Гандри 41', 63' - Д. Шабанхаджай 10')</t>
-  </si>
-  <si>
-    <t>21 тур. 16.03.2025. 15:15</t>
-  </si>
-  <si>
     <t>9 голов в 18 матчах</t>
   </si>
   <si>
@@ -4800,28 +4749,103 @@
     <t>40 очков</t>
   </si>
   <si>
-    <t>Спартак 1:0 Рубин (Э. Барко 74')</t>
-  </si>
-  <si>
-    <t>Спартак 1:0 Рубин</t>
-  </si>
-  <si>
-    <t>Спартак 1:2 Рубин</t>
-  </si>
-  <si>
-    <t>Спартак 0:2 Рубин</t>
-  </si>
-  <si>
-    <t>Спартак 2:0 Рубин</t>
-  </si>
-  <si>
-    <t>Спартак 3:0 Рубин</t>
-  </si>
-  <si>
-    <t>Спартак 0:0 Рубин</t>
-  </si>
-  <si>
     <t>kh_bakaev</t>
+  </si>
+  <si>
+    <t>С каким счётом завершилась последняя встреча Зенита и Спартака?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Зенит после девятнадцати туров?</t>
+  </si>
+  <si>
+    <t>Спартак 1:0 Зенит (Э. Барко 74')</t>
+  </si>
+  <si>
+    <t>Спартак 1:0 Зенит</t>
+  </si>
+  <si>
+    <t>Спартак 1:2 Зенит</t>
+  </si>
+  <si>
+    <t>Спартак 0:2 Зенит</t>
+  </si>
+  <si>
+    <t>Спартак 2:0 Зенит</t>
+  </si>
+  <si>
+    <t>Спартак 3:0 Зенит</t>
+  </si>
+  <si>
+    <t>Спартак 0:0 Зенит</t>
+  </si>
+  <si>
+    <t>Кто из этих футболистов играл и за Спартак, и за Зенит?</t>
+  </si>
+  <si>
+    <t>zs_latyshonok</t>
+  </si>
+  <si>
+    <t>Евгений Латышонок</t>
+  </si>
+  <si>
+    <t>Юрий Горшков</t>
+  </si>
+  <si>
+    <t>Александр Коваленко</t>
+  </si>
+  <si>
+    <t>Сергей Волков</t>
+  </si>
+  <si>
+    <t>22 тур. 30.03.2025. 19:30</t>
+  </si>
+  <si>
+    <t>22 тур. 30.03.2025. 16:30</t>
+  </si>
+  <si>
+    <t>Факел 0:2 Зенит (Л. Гонду  19', М. Кассьера 63')</t>
+  </si>
+  <si>
+    <t>Рубин 2:1 Спартак (М. Даку 8', 28' - Э. Барко 42')</t>
+  </si>
+  <si>
+    <t>На каком месте находится Зенит после двадцати туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после двадцати туров?</t>
+  </si>
+  <si>
+    <t>43 очка</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_zenit_quest.jpg</t>
+  </si>
+  <si>
+    <t>8 голов в 12 матчах</t>
+  </si>
+  <si>
+    <t>16 голов в 20 матчах</t>
+  </si>
+  <si>
+    <t>С каким счётом завершилась последняя официальная встреча Зенита и Спартака?</t>
+  </si>
+  <si>
+    <t>Зенит 0:0 Спартак</t>
+  </si>
+  <si>
+    <t>Зенит 1:0 Спартак</t>
+  </si>
+  <si>
+    <t>Зенит 0:1 Спартак</t>
+  </si>
+  <si>
+    <t>Зенит 2:1 Спартак</t>
+  </si>
+  <si>
+    <t>Зенит 1:2 Спартак</t>
+  </si>
+  <si>
+    <t>Зенит 3:0 Спартак</t>
   </si>
 </sst>
 </file>
@@ -13499,8 +13523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" activeCellId="12" sqref="A13:XFD13 A14:XFD14 A15:XFD15 A16:XFD16 A17:XFD17 A18:XFD18 A19:XFD19 A20:XFD20 A22:XFD22 A21:XFD21 A23:XFD23 A25:XFD25 A24:XFD24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15237,7 +15261,1256 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D17" sqref="A1:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15321,49 +16594,49 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1550</v>
+        <v>643</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1551</v>
+        <v>238</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1550</v>
+        <v>643</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1165</v>
+        <v>239</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1168</v>
+        <v>240</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1552</v>
+        <v>241</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1164</v>
+        <v>242</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1167</v>
+        <v>243</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1158</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15374,49 +16647,49 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1553</v>
+        <v>1581</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1553</v>
+        <v>1581</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1168</v>
+        <v>1582</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1552</v>
+        <v>244</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>1165</v>
+        <v>1583</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1164</v>
+        <v>247</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1167</v>
+        <v>1584</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>1158</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15427,49 +16700,49 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1555</v>
+        <v>1503</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1556</v>
+        <v>1504</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1552</v>
+        <v>254</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>1165</v>
+        <v>257</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1168</v>
+        <v>255</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>1164</v>
+        <v>248</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>1167</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15480,49 +16753,49 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1557</v>
+        <v>1505</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1555</v>
+        <v>1506</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1557</v>
+        <v>1505</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>392</v>
+        <v>670</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1558</v>
+        <v>247</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>854</v>
+        <v>240</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>423</v>
+        <v>241</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>422</v>
+        <v>297</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>1559</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15533,49 +16806,49 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1560</v>
+        <v>1507</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1561</v>
+        <v>1508</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1560</v>
+        <v>1507</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>833</v>
+        <v>1509</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>424</v>
+        <v>255</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>435</v>
+        <v>254</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>1562</v>
+        <v>248</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>428</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15586,19 +16859,19 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
@@ -15639,19 +16912,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>1515</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>20</v>
@@ -15681,7 +16954,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15692,19 +16965,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>20</v>
@@ -15728,7 +17001,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>20</v>
@@ -15742,22 +17015,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1177</v>
+        <v>371</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>377</v>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>378</v>
+        <v>117</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>114</v>
@@ -15801,16 +17074,16 @@
         <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>99</v>
@@ -15848,28 +17121,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1180</v>
+        <v>1499</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1578</v>
+        <v>1588</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>114</v>
@@ -15907,7 +17180,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1577</v>
+        <v>1589</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>105</v>
@@ -15954,52 +17227,52 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1206</v>
+        <v>328</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1157</v>
+        <v>1594</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1173</v>
+        <v>1507</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>1584</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>1583</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>1582</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>1162</v>
+        <v>1509</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -16013,7 +17286,7 @@
         <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1581</v>
+        <v>1595</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>569</v>
@@ -16060,22 +17333,22 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1573</v>
+        <v>1590</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>382</v>
+        <v>142</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>87</v>
@@ -16084,28 +17357,28 @@
         <v>144</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1216</v>
+        <v>85</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1217</v>
+        <v>143</v>
       </c>
       <c r="L16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="P16" s="4" t="s">
-        <v>604</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>1215</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -16113,22 +17386,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1574</v>
+        <v>1591</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1586</v>
+        <v>1569</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>87</v>
@@ -16143,10 +17416,10 @@
         <v>143</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>89</v>
@@ -16166,52 +17439,52 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1196</v>
+        <v>319</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1197</v>
+        <v>320</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1197</v>
+        <v>320</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1198</v>
+        <v>323</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1199</v>
+        <v>324</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1200</v>
+        <v>325</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>1201</v>
+        <v>326</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>1202</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16272,52 +17545,52 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>1575</v>
+        <v>1596</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1593</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>1575</v>
+        <v>1597</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1593</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1588</v>
+        <v>1597</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1590</v>
+        <v>1601</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1591</v>
+        <v>1600</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -16325,20 +17598,20 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>1575</v>
+        <v>1580</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1593</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7" t="s">
-        <v>1074</v>
+        <v>1593</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1076</v>
+        <v>633</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>20</v>
@@ -16350,7 +17623,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1121</v>
+        <v>1076</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>20</v>
@@ -16376,175 +17649,59 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8" t="s">
-        <v>1575</v>
+        <v>1580</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1570</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>627</v>
+      <c r="G22" s="4" t="s">
+        <v>671</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>1195</v>
+      <c r="I22" s="4" t="s">
+        <v>877</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>293</v>
+      <c r="K22" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>78</v>
+      <c r="M22" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>1281</v>
+      <c r="O22" s="4" t="s">
+        <v>1073</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>879</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1"/>
-    <hyperlink ref="E21" r:id="rId2"/>
+    <hyperlink ref="C21" r:id="rId2"/>
+    <hyperlink ref="C22" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId4"/>
+    <hyperlink ref="E20" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16689,7 +17846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
